--- a/cp1/chavalakh_fb-14_kot_fb-14_cp1/letters_not_cross_bigr_without_space.xlsx
+++ b/cp1/chavalakh_fb-14_kot_fb-14_cp1/letters_not_cross_bigr_without_space.xlsx
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001499460583660164</v>
+        <v>0.002998921167320328</v>
       </c>
     </row>
     <row r="34">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0008120455368653095</v>
+        <v>0.001624091073730619</v>
       </c>
     </row>
     <row r="35">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001487776475216059</v>
+        <v>0.002975552950432117</v>
       </c>
     </row>
     <row r="36">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.003752546161965111</v>
+        <v>0.007505092323930223</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.002997947491616652</v>
+        <v>0.005995894983233305</v>
       </c>
     </row>
     <row r="38">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.000261918764288691</v>
+        <v>0.0005238375285773819</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.004672669701938394</v>
+        <v>0.009345339403876787</v>
       </c>
     </row>
     <row r="40">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.003164446036945151</v>
+        <v>0.006328892073890302</v>
       </c>
     </row>
     <row r="41">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001631880479360022</v>
+        <v>0.003263760958720045</v>
       </c>
     </row>
     <row r="42">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002396215906745236</v>
+        <v>0.004792431813490472</v>
       </c>
     </row>
     <row r="43">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.002164481089270483</v>
+        <v>0.004328962178540966</v>
       </c>
     </row>
     <row r="44">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001252146954926604</v>
+        <v>0.002504293909853209</v>
       </c>
     </row>
     <row r="45">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.004151753200472038</v>
+        <v>0.008303506400944075</v>
       </c>
     </row>
     <row r="46">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.003011578951468108</v>
+        <v>0.006023157902936217</v>
       </c>
     </row>
     <row r="47">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9.73675703675431e-05</v>
+        <v>0.0001947351407350862</v>
       </c>
     </row>
     <row r="48">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0001139200573300254</v>
+        <v>0.0002278401146600509</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.002347532121561464</v>
+        <v>0.004695064243122929</v>
       </c>
     </row>
     <row r="50">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006089367850786146</v>
+        <v>0.01217873570157229</v>
       </c>
     </row>
     <row r="51">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.001599749181138733</v>
+        <v>0.003199498362277467</v>
       </c>
     </row>
     <row r="52">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.002573424884814164</v>
+        <v>0.005146849769628328</v>
       </c>
     </row>
     <row r="53">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.004779774029342691</v>
+        <v>0.009559548058685382</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005094271281629855</v>
+        <v>0.01018854256325971</v>
       </c>
     </row>
     <row r="55">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.003813887731296664</v>
+        <v>0.007627775462593327</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0002609450885850155</v>
+        <v>0.000521890177170031</v>
       </c>
     </row>
     <row r="57">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0001168410844410517</v>
+        <v>0.0002336821688821035</v>
       </c>
     </row>
     <row r="58">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0005627845567243991</v>
+        <v>0.001125569113448798</v>
       </c>
     </row>
     <row r="59">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0009094131072328526</v>
+        <v>0.001818826214465705</v>
       </c>
     </row>
     <row r="60">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0009931492177489396</v>
+        <v>0.001986298435497879</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.00527440128680981</v>
+        <v>0.01054880257361962</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0004878115275413909</v>
+        <v>0.0009756230550827819</v>
       </c>
     </row>
     <row r="63">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.001641617236396777</v>
+        <v>0.003283234472793553</v>
       </c>
     </row>
     <row r="64">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.002582187966147243</v>
+        <v>0.005164375932294486</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.003030078789837941</v>
+        <v>0.006060157579675883</v>
       </c>
     </row>
     <row r="66">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0002872343325842522</v>
+        <v>0.0005744686651685043</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.001327119984109612</v>
+        <v>0.002654239968219225</v>
       </c>
     </row>
     <row r="68">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.001980456381275827</v>
+        <v>0.003960912762551653</v>
       </c>
     </row>
     <row r="69">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.003406891287160333</v>
+        <v>0.006813782574320667</v>
       </c>
     </row>
     <row r="70">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.002193691360380746</v>
+        <v>0.004387382720761493</v>
       </c>
     </row>
     <row r="71">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.006451575212553406</v>
+        <v>0.01290315042510681</v>
       </c>
     </row>
     <row r="72">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.002408873690893017</v>
+        <v>0.004817747381786033</v>
       </c>
     </row>
     <row r="73">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.003459469775158807</v>
+        <v>0.006918939550317613</v>
       </c>
     </row>
     <row r="74">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.002604582507331778</v>
+        <v>0.005209165014663556</v>
       </c>
     </row>
     <row r="75">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.004327014827133616</v>
+        <v>0.008654029654267231</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.00363765242893141</v>
+        <v>0.007275304857862821</v>
       </c>
     </row>
     <row r="77">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5.257848799847328e-05</v>
+        <v>0.0001051569759969466</v>
       </c>
     </row>
     <row r="78">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.003856729462258382</v>
+        <v>0.007713458924516765</v>
       </c>
     </row>
     <row r="79">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0004547065536164263</v>
+        <v>0.0009094131072328526</v>
       </c>
     </row>
     <row r="80">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.001117779707819395</v>
+        <v>0.00223555941563879</v>
       </c>
     </row>
     <row r="81">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0003154709279908396</v>
+        <v>0.0006309418559816793</v>
       </c>
     </row>
     <row r="82">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.003156656631315747</v>
+        <v>0.006313313262631495</v>
       </c>
     </row>
     <row r="83">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.004276383690542493</v>
+        <v>0.008552767381084986</v>
       </c>
     </row>
     <row r="84">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.001714642914172434</v>
+        <v>0.003429285828344868</v>
       </c>
     </row>
     <row r="85">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.003129393711612835</v>
+        <v>0.006258787423225671</v>
       </c>
     </row>
     <row r="86">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.00387425562492454</v>
+        <v>0.00774851124984908</v>
       </c>
     </row>
     <row r="87">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3.797335244334181e-05</v>
+        <v>7.594670488668362e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.00131056749714713</v>
+        <v>0.00262113499429426</v>
       </c>
     </row>
     <row r="89">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0001392356256255866</v>
+        <v>0.0002784712512511733</v>
       </c>
     </row>
     <row r="90">
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.001439092690032287</v>
+        <v>0.002878185380064574</v>
       </c>
     </row>
     <row r="91">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.002125534061123466</v>
+        <v>0.004251068122246932</v>
       </c>
     </row>
     <row r="92">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.002462425854595165</v>
+        <v>0.004924851709190331</v>
       </c>
     </row>
     <row r="93">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.001087595761005457</v>
+        <v>0.002175191522010913</v>
       </c>
     </row>
     <row r="94">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.002476057314446621</v>
+        <v>0.004952114628893243</v>
       </c>
     </row>
     <row r="95">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.001193726412706079</v>
+        <v>0.002387452825412157</v>
       </c>
     </row>
     <row r="96">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.005430189399397879</v>
+        <v>0.01086037879879576</v>
       </c>
     </row>
     <row r="97">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.003523732371601385</v>
+        <v>0.00704746474320277</v>
       </c>
     </row>
     <row r="98">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0003174182793981905</v>
+        <v>0.0006348365587963811</v>
       </c>
     </row>
     <row r="99">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.003466285505084534</v>
+        <v>0.006932571010169069</v>
       </c>
     </row>
     <row r="100">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0006416522887221091</v>
+        <v>0.001283304577444218</v>
       </c>
     </row>
     <row r="101">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0008665713762711336</v>
+        <v>0.001733142752542267</v>
       </c>
     </row>
     <row r="102">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.006747572626470738</v>
+        <v>0.01349514525294148</v>
       </c>
     </row>
     <row r="103">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0003300760635459711</v>
+        <v>0.0006601521270919422</v>
       </c>
     </row>
     <row r="104">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.000853913592123353</v>
+        <v>0.001707827184246706</v>
       </c>
     </row>
     <row r="105">
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.00174969523950475</v>
+        <v>0.003499390479009499</v>
       </c>
     </row>
     <row r="106">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.002069060870310291</v>
+        <v>0.004138121740620582</v>
       </c>
     </row>
     <row r="107">
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.000295997413917331</v>
+        <v>0.000591994827834662</v>
       </c>
     </row>
     <row r="108">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0005238375285773819</v>
+        <v>0.001047675057154764</v>
       </c>
     </row>
     <row r="109">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0003086551980651116</v>
+        <v>0.0006173103961302233</v>
       </c>
     </row>
     <row r="110">
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0008295716995314672</v>
+        <v>0.001659143399062934</v>
       </c>
     </row>
     <row r="111">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.005893659034347384</v>
+        <v>0.01178731806869477</v>
       </c>
     </row>
     <row r="112">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.001966824921424371</v>
+        <v>0.003933649842848741</v>
       </c>
     </row>
     <row r="113">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.00132127792988756</v>
+        <v>0.00264255585977512</v>
       </c>
     </row>
     <row r="114">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0001966824921424371</v>
+        <v>0.0003933649842848741</v>
       </c>
     </row>
     <row r="115">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.005879053898792253</v>
+        <v>0.01175810779758451</v>
       </c>
     </row>
     <row r="116">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.004111832496621345</v>
+        <v>0.00822366499324269</v>
       </c>
     </row>
     <row r="117">
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.000826650672420441</v>
+        <v>0.001653301344840882</v>
       </c>
     </row>
     <row r="118">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0003339707663606728</v>
+        <v>0.0006679415327213457</v>
       </c>
     </row>
     <row r="119">
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0004089437955436811</v>
+        <v>0.0008178875910873621</v>
       </c>
     </row>
     <row r="120">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.001292067658777297</v>
+        <v>0.002584135317554594</v>
       </c>
     </row>
     <row r="121">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.002311506120525473</v>
+        <v>0.004623012241050947</v>
       </c>
     </row>
     <row r="122">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.0006981254795352841</v>
+        <v>0.001396250959070568</v>
       </c>
     </row>
     <row r="123">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.000261918764288691</v>
+        <v>0.0005238375285773819</v>
       </c>
     </row>
     <row r="124">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0003008657924357082</v>
+        <v>0.0006017315848714164</v>
       </c>
     </row>
     <row r="125">
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.001449803122772717</v>
+        <v>0.002899606245545434</v>
       </c>
     </row>
     <row r="126">
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.001452724149883743</v>
+        <v>0.002905448299767486</v>
       </c>
     </row>
     <row r="127">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.002154744332233729</v>
+        <v>0.004309488664467458</v>
       </c>
     </row>
     <row r="128">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3.018394681393836e-05</v>
+        <v>6.036789362787673e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.003930728815737715</v>
+        <v>0.00786145763147543</v>
       </c>
     </row>
     <row r="130">
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.0002239454118453491</v>
+        <v>0.0004478908236906983</v>
       </c>
     </row>
     <row r="131">
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.004631775322384025</v>
+        <v>0.00926355064476805</v>
       </c>
     </row>
     <row r="132">
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0006085473147971444</v>
+        <v>0.001217094629594289</v>
       </c>
     </row>
     <row r="133">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.001144068951818632</v>
+        <v>0.002288137903637263</v>
       </c>
     </row>
     <row r="134">
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.0003787598487297427</v>
+        <v>0.0007575196974594854</v>
       </c>
     </row>
     <row r="135">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.002284243200822561</v>
+        <v>0.004568486401645123</v>
       </c>
     </row>
     <row r="136">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.001697116751506276</v>
+        <v>0.003394233503012553</v>
       </c>
     </row>
     <row r="137">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>6.523627214625388e-05</v>
+        <v>0.0001304725442925078</v>
       </c>
     </row>
     <row r="138">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.002982368680357845</v>
+        <v>0.00596473736071569</v>
       </c>
     </row>
     <row r="139">
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.001190805385595052</v>
+        <v>0.002381610771190105</v>
       </c>
     </row>
     <row r="140">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.002551030343629629</v>
+        <v>0.005102060687259258</v>
       </c>
     </row>
     <row r="141">
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.003005736897246056</v>
+        <v>0.006011473794492112</v>
       </c>
     </row>
     <row r="142">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.002741870781550014</v>
+        <v>0.005483741563100028</v>
       </c>
     </row>
     <row r="143">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.003390338800197851</v>
+        <v>0.006780677600395702</v>
       </c>
     </row>
     <row r="144">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.0003602600103599095</v>
+        <v>0.000720520020719819</v>
       </c>
     </row>
     <row r="145">
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.003979412600921487</v>
+        <v>0.007958825201842974</v>
       </c>
     </row>
     <row r="146">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.001274541496111139</v>
+        <v>0.002549082992222279</v>
       </c>
     </row>
     <row r="147">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0002697081699180944</v>
+        <v>0.0005394163398361888</v>
       </c>
     </row>
     <row r="148">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.0008003614284212043</v>
+        <v>0.001600722856842409</v>
       </c>
     </row>
     <row r="149">
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.008777686468634012</v>
+        <v>0.01755537293726802</v>
       </c>
     </row>
     <row r="150">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.0004118648226547073</v>
+        <v>0.0008237296453094147</v>
       </c>
     </row>
     <row r="151">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.0004167332011730845</v>
+        <v>0.000833466402346169</v>
       </c>
     </row>
     <row r="152">
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.003276418742867826</v>
+        <v>0.006552837485735651</v>
       </c>
     </row>
     <row r="153">
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.0002531556829556121</v>
+        <v>0.0005063113659112241</v>
       </c>
     </row>
     <row r="154">
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.0006085473147971444</v>
+        <v>0.001217094629594289</v>
       </c>
     </row>
     <row r="155">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.003811940379889312</v>
+        <v>0.007623880759778625</v>
       </c>
     </row>
     <row r="156">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>9.931492177489397e-05</v>
+        <v>0.0001986298435497879</v>
       </c>
     </row>
     <row r="157">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0007419408862006784</v>
+        <v>0.001483881772401357</v>
       </c>
     </row>
     <row r="158">
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.0005705739623538026</v>
+        <v>0.001141147924707605</v>
       </c>
     </row>
     <row r="159">
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.001610459613879163</v>
+        <v>0.003220919227758326</v>
       </c>
     </row>
     <row r="160">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0002025245463644897</v>
+        <v>0.0004050490927289793</v>
       </c>
     </row>
     <row r="161">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.0001139200573300254</v>
+        <v>0.0002278401146600509</v>
       </c>
     </row>
     <row r="162">
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.001125569113448798</v>
+        <v>0.002251138226897596</v>
       </c>
     </row>
     <row r="163">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.001185937007076675</v>
+        <v>0.00237187401415335</v>
       </c>
     </row>
     <row r="164">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>7.107832636830647e-05</v>
+        <v>0.0001421566527366129</v>
       </c>
     </row>
     <row r="165">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.0007244147235345206</v>
+        <v>0.001448829447069041</v>
       </c>
     </row>
     <row r="166">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0001100253545153237</v>
+        <v>0.0002200507090306474</v>
       </c>
     </row>
     <row r="167">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.0005462320697619168</v>
+        <v>0.001092464139523834</v>
       </c>
     </row>
     <row r="168">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>7.789405629403448e-05</v>
+        <v>0.000155788112588069</v>
       </c>
     </row>
     <row r="169">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.0003378654691753746</v>
+        <v>0.0006757309383507491</v>
       </c>
     </row>
     <row r="170">
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.002345584770154113</v>
+        <v>0.004691169540308226</v>
       </c>
     </row>
     <row r="171">
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0001674722210321741</v>
+        <v>0.0003349444420643483</v>
       </c>
     </row>
     <row r="172">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.000508258717318575</v>
+        <v>0.00101651743463715</v>
       </c>
     </row>
     <row r="173">
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>3.797335244334181e-05</v>
+        <v>7.594670488668362e-05</v>
       </c>
     </row>
     <row r="174">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.003285181824200904</v>
+        <v>0.006570363648401809</v>
       </c>
     </row>
     <row r="175">
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.0001927877893277353</v>
+        <v>0.0003855755786554707</v>
       </c>
     </row>
     <row r="176">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.0003777861730260672</v>
+        <v>0.0007555723460521345</v>
       </c>
     </row>
     <row r="177">
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.001153805708855386</v>
+        <v>0.002307611417710772</v>
       </c>
     </row>
     <row r="178">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.003744756756335708</v>
+        <v>0.007489513512671415</v>
       </c>
     </row>
     <row r="179">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.0001226831386631043</v>
+        <v>0.0002453662773262086</v>
       </c>
     </row>
     <row r="180">
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0009415444054541418</v>
+        <v>0.001883088810908284</v>
       </c>
     </row>
     <row r="181">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.002785686188215408</v>
+        <v>0.005571372376430817</v>
       </c>
     </row>
     <row r="182">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.004635670025198727</v>
+        <v>0.009271340050397455</v>
       </c>
     </row>
     <row r="183">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.0003476022262121289</v>
+        <v>0.0006952044524242577</v>
       </c>
     </row>
     <row r="184">
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.000930833972713712</v>
+        <v>0.001861667945427424</v>
       </c>
     </row>
     <row r="185">
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.0006669678570176702</v>
+        <v>0.00133393571403534</v>
       </c>
     </row>
     <row r="186">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0002463399530298841</v>
+        <v>0.0004926799060597681</v>
       </c>
     </row>
     <row r="187">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.001227805062334719</v>
+        <v>0.002455610124669437</v>
       </c>
     </row>
     <row r="188">
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.00119762111552078</v>
+        <v>0.002395242231041561</v>
       </c>
     </row>
     <row r="189">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.0001976561678461125</v>
+        <v>0.000395312335692225</v>
       </c>
     </row>
     <row r="190">
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.001351461876701498</v>
+        <v>0.002702923753402997</v>
       </c>
     </row>
     <row r="191">
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.001205410521150184</v>
+        <v>0.002410821042300367</v>
       </c>
     </row>
     <row r="192">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.002640608508367769</v>
+        <v>0.005281217016735538</v>
       </c>
     </row>
     <row r="193">
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.0009882808392305624</v>
+        <v>0.001976561678461125</v>
       </c>
     </row>
     <row r="194">
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.0006582047756845913</v>
+        <v>0.001316409551369183</v>
       </c>
     </row>
     <row r="195">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>9.834124607121854e-05</v>
+        <v>0.0001966824921424371</v>
       </c>
     </row>
     <row r="196">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.0005063113659112241</v>
+        <v>0.001012622731822448</v>
       </c>
     </row>
     <row r="197">
@@ -2388,7 +2388,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.001418645500255103</v>
+        <v>0.002837291000510206</v>
       </c>
     </row>
     <row r="198">
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.0007701774816072659</v>
+        <v>0.001540354963214532</v>
       </c>
     </row>
     <row r="199">
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.0005871264493162849</v>
+        <v>0.00117425289863257</v>
       </c>
     </row>
     <row r="200">
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.0004478908236906983</v>
+        <v>0.0008957816473813965</v>
       </c>
     </row>
     <row r="201">
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.002434189259188578</v>
+        <v>0.004868378518377155</v>
       </c>
     </row>
     <row r="202">
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.0009142814857512298</v>
+        <v>0.00182856297150246</v>
       </c>
     </row>
     <row r="203">
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.0004031017413216284</v>
+        <v>0.0008062034826432569</v>
       </c>
     </row>
     <row r="204">
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.0001285251928851569</v>
+        <v>0.0002570503857703138</v>
       </c>
     </row>
     <row r="205">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.0008578082949380547</v>
+        <v>0.001715616589876109</v>
       </c>
     </row>
     <row r="206">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>3.699967673966638e-05</v>
+        <v>7.399935347933275e-05</v>
       </c>
     </row>
     <row r="207">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.0008305453752351427</v>
+        <v>0.001661090750470285</v>
       </c>
     </row>
     <row r="208">
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.0001226831386631043</v>
+        <v>0.0002453662773262086</v>
       </c>
     </row>
     <row r="209">
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.00132127792988756</v>
+        <v>0.00264255585977512</v>
       </c>
     </row>
     <row r="210">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.001318356902776534</v>
+        <v>0.002636713805553067</v>
       </c>
     </row>
     <row r="211">
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.003195603659462765</v>
+        <v>0.00639120731892553</v>
       </c>
     </row>
     <row r="212">
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0008811765118262651</v>
+        <v>0.00176235302365253</v>
       </c>
     </row>
     <row r="213">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.0005997842334640655</v>
+        <v>0.001199568466928131</v>
       </c>
     </row>
     <row r="214">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0003115762251761379</v>
+        <v>0.0006231524503522758</v>
       </c>
     </row>
     <row r="215">
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.001141147924707605</v>
+        <v>0.00228229584941521</v>
       </c>
     </row>
     <row r="216">
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.001742879509579021</v>
+        <v>0.003485759019158043</v>
       </c>
     </row>
     <row r="217">
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.0002531556829556121</v>
+        <v>0.0005063113659112241</v>
       </c>
     </row>
     <row r="218">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.0005520741239839694</v>
+        <v>0.001104148247967939</v>
       </c>
     </row>
     <row r="219">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.001761379347948855</v>
+        <v>0.00352275869589771</v>
       </c>
     </row>
     <row r="220">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.0006981254795352841</v>
+        <v>0.001396250959070568</v>
       </c>
     </row>
     <row r="221">
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.000345654874804778</v>
+        <v>0.000691309749609556</v>
       </c>
     </row>
     <row r="222">
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.004840141922970568</v>
+        <v>0.009680283845941136</v>
       </c>
     </row>
     <row r="223">
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.001269673117592762</v>
+        <v>0.002539346235185524</v>
       </c>
     </row>
     <row r="224">
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.003700941349670313</v>
+        <v>0.007401882699340626</v>
       </c>
     </row>
     <row r="225">
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.0003534442804341815</v>
+        <v>0.000706888560868363</v>
       </c>
     </row>
     <row r="226">
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.0008519662407160022</v>
+        <v>0.001703932481432004</v>
       </c>
     </row>
     <row r="227">
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.0007935456984954763</v>
+        <v>0.001587091396990953</v>
       </c>
     </row>
     <row r="228">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.001417671824551428</v>
+        <v>0.002835343649102855</v>
       </c>
     </row>
     <row r="229">
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.0003359181177680237</v>
+        <v>0.0006718362355360475</v>
       </c>
     </row>
     <row r="230">
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.002929790192359372</v>
+        <v>0.005859580384718744</v>
       </c>
     </row>
     <row r="231">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.002922974462433644</v>
+        <v>0.005845948924867288</v>
       </c>
     </row>
     <row r="232">
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.0001285251928851569</v>
+        <v>0.0002570503857703138</v>
       </c>
     </row>
     <row r="233">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.0003797335244334181</v>
+        <v>0.0007594670488668362</v>
       </c>
     </row>
     <row r="234">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.0003534442804341815</v>
+        <v>0.000706888560868363</v>
       </c>
     </row>
     <row r="235">
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.002229717361416737</v>
+        <v>0.004459434722833474</v>
       </c>
     </row>
     <row r="236">
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.0001908404379203845</v>
+        <v>0.000381680875840769</v>
       </c>
     </row>
     <row r="237">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.0004186805525804353</v>
+        <v>0.0008373611051608707</v>
       </c>
     </row>
     <row r="238">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.0001957088164387617</v>
+        <v>0.0003914176328775233</v>
       </c>
     </row>
     <row r="239">
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.0002229717361416737</v>
+        <v>0.0004459434722833474</v>
       </c>
     </row>
     <row r="240">
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.001718537616987136</v>
+        <v>0.003437075233974272</v>
       </c>
     </row>
     <row r="241">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.0006484680186478371</v>
+        <v>0.001296936037295674</v>
       </c>
     </row>
     <row r="242">
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.0001606564911064461</v>
+        <v>0.0003213129822128923</v>
       </c>
     </row>
     <row r="243">
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.0005676529352427763</v>
+        <v>0.001135305870485553</v>
       </c>
     </row>
     <row r="244">
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.0003923913085811987</v>
+        <v>0.0007847826171623974</v>
       </c>
     </row>
     <row r="245">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.001945404055943511</v>
+        <v>0.003890808111887023</v>
       </c>
     </row>
     <row r="246">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.0009629652709350013</v>
+        <v>0.001925930541870003</v>
       </c>
     </row>
     <row r="247">
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.0009318076484173875</v>
+        <v>0.001863615296834775</v>
       </c>
     </row>
     <row r="248">
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.002507214936964235</v>
+        <v>0.005014429873928469</v>
       </c>
     </row>
     <row r="249">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.000444969796579672</v>
+        <v>0.000889939593159344</v>
       </c>
     </row>
     <row r="250">
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>7.20520020719819e-05</v>
+        <v>0.0001441040041439638</v>
       </c>
     </row>
     <row r="251">
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.0008568346192343793</v>
+        <v>0.001713669238468759</v>
       </c>
     </row>
     <row r="252">
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.0003300760635459711</v>
+        <v>0.0006601521270919422</v>
       </c>
     </row>
     <row r="253">
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.0008840975389372914</v>
+        <v>0.001768195077874583</v>
       </c>
     </row>
     <row r="254">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.000713704290794091</v>
+        <v>0.001427408581588182</v>
       </c>
     </row>
     <row r="255">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.0002278401146600509</v>
+        <v>0.0004556802293201017</v>
       </c>
     </row>
     <row r="256">
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.001584170369879926</v>
+        <v>0.003168340739759853</v>
       </c>
     </row>
     <row r="257">
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.002243348821268193</v>
+        <v>0.004486697642536387</v>
       </c>
     </row>
     <row r="258">
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.001037938300118009</v>
+        <v>0.002075876600236019</v>
       </c>
     </row>
     <row r="259">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>8.47097862197625e-05</v>
+        <v>0.000169419572439525</v>
       </c>
     </row>
     <row r="260">
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.0004167332011730845</v>
+        <v>0.000833466402346169</v>
       </c>
     </row>
     <row r="261">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.0008733871061968616</v>
+        <v>0.001746774212393723</v>
       </c>
     </row>
     <row r="262">
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.00176235302365253</v>
+        <v>0.00352470604730506</v>
       </c>
     </row>
     <row r="263">
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.0002424452502151823</v>
+        <v>0.0004848905004303647</v>
       </c>
     </row>
     <row r="264">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.000381680875840769</v>
+        <v>0.0007633617516815379</v>
       </c>
     </row>
     <row r="265">
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>5.93942179242013e-05</v>
+        <v>0.0001187884358484026</v>
       </c>
     </row>
     <row r="266">
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.0007945193741991517</v>
+        <v>0.001589038748398303</v>
       </c>
     </row>
     <row r="267">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.0002142086548085948</v>
+        <v>0.0004284173096171896</v>
       </c>
     </row>
     <row r="268">
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.003150814577093695</v>
+        <v>0.00630162915418739</v>
       </c>
     </row>
     <row r="269">
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.001411829770329375</v>
+        <v>0.00282365954065875</v>
       </c>
     </row>
     <row r="270">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.001778905510615013</v>
+        <v>0.003557811021230025</v>
       </c>
     </row>
     <row r="271">
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.0002482873044372349</v>
+        <v>0.0004965746088744698</v>
       </c>
     </row>
     <row r="272">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.0006971518038316086</v>
+        <v>0.001394303607663217</v>
       </c>
     </row>
     <row r="273">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.0008743607819005371</v>
+        <v>0.001748721563801074</v>
       </c>
     </row>
     <row r="274">
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.001518934097733672</v>
+        <v>0.003037868195467345</v>
       </c>
     </row>
     <row r="275">
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.0008870185660483176</v>
+        <v>0.001774037132096635</v>
       </c>
     </row>
     <row r="276">
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.0008500188893086513</v>
+        <v>0.001700037778617303</v>
       </c>
     </row>
     <row r="277">
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>8.178875910873621e-05</v>
+        <v>0.0001635775182174724</v>
       </c>
     </row>
     <row r="278">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.0001801300051799547</v>
+        <v>0.0003602600103599095</v>
       </c>
     </row>
     <row r="279">
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.0004089437955436811</v>
+        <v>0.0008178875910873621</v>
       </c>
     </row>
     <row r="280">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.0002502346558445858</v>
+        <v>0.0005004693116891716</v>
       </c>
     </row>
     <row r="281">
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.001362172309441928</v>
+        <v>0.002724344618883856</v>
       </c>
     </row>
     <row r="282">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.001809089457428951</v>
+        <v>0.003618178914857902</v>
       </c>
     </row>
     <row r="283">
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.0003476022262121289</v>
+        <v>0.0006952044524242577</v>
       </c>
     </row>
     <row r="284">
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.001286225604555244</v>
+        <v>0.002572451209110489</v>
       </c>
     </row>
     <row r="285">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.003398128205827254</v>
+        <v>0.006796256411654509</v>
       </c>
     </row>
     <row r="286">
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.0006757309383507491</v>
+        <v>0.001351461876701498</v>
       </c>
     </row>
     <row r="287">
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.0005569425025023465</v>
+        <v>0.001113885005004693</v>
       </c>
     </row>
     <row r="288">
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.001440066365735963</v>
+        <v>0.002880132731471925</v>
       </c>
     </row>
     <row r="289">
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.0006562574242772406</v>
+        <v>0.001312514848554481</v>
       </c>
     </row>
     <row r="290">
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.001274541496111139</v>
+        <v>0.002549082992222279</v>
       </c>
     </row>
     <row r="291">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1.26577841477806e-05</v>
+        <v>2.531556829556121e-05</v>
       </c>
     </row>
     <row r="292">
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.0002852869811769013</v>
+        <v>0.0005705739623538026</v>
       </c>
     </row>
     <row r="293">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.001426434905884506</v>
+        <v>0.002852869811769013</v>
       </c>
     </row>
     <row r="294">
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.0002064192491791914</v>
+        <v>0.0004128384983583828</v>
       </c>
     </row>
     <row r="295">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.0004517855265054</v>
+        <v>0.0009035710530108</v>
       </c>
     </row>
     <row r="296">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.0006513890457588633</v>
+        <v>0.001302778091517727</v>
       </c>
     </row>
     <row r="297">
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.0003037868195467345</v>
+        <v>0.0006075736390934689</v>
       </c>
     </row>
     <row r="298">
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.000261918764288691</v>
+        <v>0.0005238375285773819</v>
       </c>
     </row>
     <row r="299">
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.001257015333444981</v>
+        <v>0.002514030666889963</v>
       </c>
     </row>
     <row r="300">
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.001254094306333955</v>
+        <v>0.00250818861266791</v>
       </c>
     </row>
     <row r="301">
@@ -3428,7 +3428,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.0007555723460521345</v>
+        <v>0.001511144692104269</v>
       </c>
     </row>
     <row r="302">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.0002794449269548487</v>
+        <v>0.0005588898539096974</v>
       </c>
     </row>
     <row r="303">
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.0001888930865130336</v>
+        <v>0.0003777861730260672</v>
       </c>
     </row>
     <row r="304">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.0003106025494724625</v>
+        <v>0.0006212050989449251</v>
       </c>
     </row>
     <row r="305">
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.0004819694733193384</v>
+        <v>0.0009639389466386767</v>
       </c>
     </row>
     <row r="306">
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>4.965746088744698e-05</v>
+        <v>9.931492177489397e-05</v>
       </c>
     </row>
     <row r="307">
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.0004060227684326548</v>
+        <v>0.0008120455368653095</v>
       </c>
     </row>
     <row r="308">
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>4.868378518377155e-05</v>
+        <v>9.73675703675431e-05</v>
       </c>
     </row>
     <row r="309">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.0005803107193905569</v>
+        <v>0.001160621438781114</v>
       </c>
     </row>
     <row r="310">
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.002069060870310291</v>
+        <v>0.004138121740620582</v>
       </c>
     </row>
     <row r="311">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.0001275515171814815</v>
+        <v>0.000255103034362963</v>
       </c>
     </row>
     <row r="312">
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1.168410844410517e-05</v>
+        <v>2.336821688821034e-05</v>
       </c>
     </row>
     <row r="313">
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.0008568346192343793</v>
+        <v>0.001713669238468759</v>
       </c>
     </row>
     <row r="314">
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.0002297874660674017</v>
+        <v>0.0004595749321348035</v>
       </c>
     </row>
     <row r="315">
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>7.886773199770991e-05</v>
+        <v>0.0001577354639954198</v>
       </c>
     </row>
     <row r="316">
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.0001674722210321741</v>
+        <v>0.0003349444420643483</v>
       </c>
     </row>
     <row r="317">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.0001947351407350862</v>
+        <v>0.0003894702814701724</v>
       </c>
     </row>
     <row r="318">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.0001431303284402884</v>
+        <v>0.0002862606568805767</v>
       </c>
     </row>
     <row r="319">
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.001146989978929658</v>
+        <v>0.002293979957859316</v>
       </c>
     </row>
     <row r="320">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.0002979447653246819</v>
+        <v>0.0005958895306493638</v>
       </c>
     </row>
     <row r="321">
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>3.797335244334181e-05</v>
+        <v>7.594670488668362e-05</v>
       </c>
     </row>
     <row r="322">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.0008188612667910376</v>
+        <v>0.001637722533582075</v>
       </c>
     </row>
     <row r="323">
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.000162603842513797</v>
+        <v>0.000325207685027594</v>
       </c>
     </row>
     <row r="324">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.0007526513189411082</v>
+        <v>0.001505302637882216</v>
       </c>
     </row>
     <row r="325">
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>2.82365954065875e-05</v>
+        <v>5.6473190813175e-05</v>
       </c>
     </row>
     <row r="326">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.0002424452502151823</v>
+        <v>0.0004848905004303647</v>
       </c>
     </row>
     <row r="327">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.0001392356256255866</v>
+        <v>0.0002784712512511733</v>
       </c>
     </row>
     <row r="328">
@@ -3698,7 +3698,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.001278436198925841</v>
+        <v>0.002556872397851682</v>
       </c>
     </row>
     <row r="329">
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.0002677608185107435</v>
+        <v>0.0005355216370214871</v>
       </c>
     </row>
     <row r="330">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.000183051032290981</v>
+        <v>0.0003661020645819621</v>
       </c>
     </row>
     <row r="331">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.0003144972522871642</v>
+        <v>0.0006289945045743284</v>
       </c>
     </row>
     <row r="332">
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.0003485759019158043</v>
+        <v>0.0006971518038316086</v>
       </c>
     </row>
     <row r="333">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.0006805993168691263</v>
+        <v>0.001361198633738253</v>
       </c>
     </row>
     <row r="334">
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.0001791563294762793</v>
+        <v>0.0003583126589525587</v>
       </c>
     </row>
     <row r="335">
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.000571547638057478</v>
+        <v>0.001143095276114956</v>
       </c>
     </row>
     <row r="336">
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.0002443926016225332</v>
+        <v>0.0004887852032450664</v>
       </c>
     </row>
     <row r="337">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.0001509197340696918</v>
+        <v>0.0003018394681393836</v>
       </c>
     </row>
     <row r="338">
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.0002073929248828668</v>
+        <v>0.0004147858497657336</v>
       </c>
     </row>
     <row r="339">
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.0009941228934526151</v>
+        <v>0.00198824578690523</v>
       </c>
     </row>
     <row r="340">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.0002697081699180944</v>
+        <v>0.0005394163398361888</v>
       </c>
     </row>
     <row r="341">
@@ -3828,7 +3828,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.0002706818456217698</v>
+        <v>0.0005413636912435396</v>
       </c>
     </row>
     <row r="342">
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.0006387312616110828</v>
+        <v>0.001277462523222166</v>
       </c>
     </row>
     <row r="343">
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.0006757309383507491</v>
+        <v>0.001351461876701498</v>
       </c>
     </row>
     <row r="344">
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.001040859327229036</v>
+        <v>0.002081718654458072</v>
       </c>
     </row>
     <row r="345">
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.0004576275807274526</v>
+        <v>0.0009152551614549052</v>
       </c>
     </row>
     <row r="346">
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.001102200896560588</v>
+        <v>0.002204401793121176</v>
       </c>
     </row>
     <row r="347">
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.0001703932481432004</v>
+        <v>0.0003407864962864009</v>
       </c>
     </row>
     <row r="348">
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.0005618108810207238</v>
+        <v>0.001123621762041448</v>
       </c>
     </row>
     <row r="349">
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.0005326006099104608</v>
+        <v>0.001065201219820922</v>
       </c>
     </row>
     <row r="350">
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.0001752616266615776</v>
+        <v>0.0003505232533231552</v>
       </c>
     </row>
     <row r="351">
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.0001528670854770427</v>
+        <v>0.0003057341709540854</v>
       </c>
     </row>
     <row r="352">
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.0005170217986516539</v>
+        <v>0.001034043597303308</v>
       </c>
     </row>
     <row r="353">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.0006104946662044953</v>
+        <v>0.001220989332408991</v>
       </c>
     </row>
     <row r="354">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.0001421566527366129</v>
+        <v>0.0002843133054732259</v>
       </c>
     </row>
     <row r="355">
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.0005296795827994345</v>
+        <v>0.001059359165598869</v>
       </c>
     </row>
     <row r="356">
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="357">
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.0002521820072519366</v>
+        <v>0.0005043640145038732</v>
       </c>
     </row>
     <row r="358">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.001916193784833248</v>
+        <v>0.003832387569666497</v>
       </c>
     </row>
     <row r="359">
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.001130437491967176</v>
+        <v>0.002260874983934351</v>
       </c>
     </row>
     <row r="360">
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.0003106025494724625</v>
+        <v>0.0006212050989449251</v>
       </c>
     </row>
     <row r="361">
@@ -4028,7 +4028,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>4.771010948009612e-05</v>
+        <v>9.542021896019224e-05</v>
       </c>
     </row>
     <row r="362">
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.002691239644958891</v>
+        <v>0.005382479289917782</v>
       </c>
     </row>
     <row r="363">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.0005403900155398643</v>
+        <v>0.001080780031079729</v>
       </c>
     </row>
     <row r="364">
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.0002599714128813401</v>
+        <v>0.0005199428257626801</v>
       </c>
     </row>
     <row r="365">
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="366">
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.0001479987069586655</v>
+        <v>0.000295997413917331</v>
       </c>
     </row>
     <row r="367">
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.0005988105577603901</v>
+        <v>0.00119762111552078</v>
       </c>
     </row>
     <row r="368">
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.0005686266109464518</v>
+        <v>0.001137253221892904</v>
       </c>
     </row>
     <row r="369">
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.0005102060687259259</v>
+        <v>0.001020412137451852</v>
       </c>
     </row>
     <row r="370">
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.000889939593159344</v>
+        <v>0.001779879186318688</v>
       </c>
     </row>
     <row r="371">
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.0001723405995505513</v>
+        <v>0.0003446811991011026</v>
       </c>
     </row>
     <row r="372">
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>2.142086548085948e-05</v>
+        <v>4.284173096171897e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>8.860448903446423e-05</v>
+        <v>0.0001772089780689285</v>
       </c>
     </row>
     <row r="374">
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.0004556802293201017</v>
+        <v>0.0009113604586402035</v>
       </c>
     </row>
     <row r="375">
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.0002745765484364715</v>
+        <v>0.0005491530968729431</v>
       </c>
     </row>
     <row r="376">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>7.984140770138534e-05</v>
+        <v>0.0001596828154027707</v>
       </c>
     </row>
     <row r="377">
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.001117779707819395</v>
+        <v>0.00223555941563879</v>
       </c>
     </row>
     <row r="378">
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.000169419572439525</v>
+        <v>0.00033883914487905</v>
       </c>
     </row>
     <row r="379">
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.0003183919551018659</v>
+        <v>0.0006367839102037319</v>
       </c>
     </row>
     <row r="380">
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.0001100253545153237</v>
+        <v>0.0002200507090306474</v>
       </c>
     </row>
     <row r="381">
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.001500434259363839</v>
+        <v>0.003000868518727678</v>
       </c>
     </row>
     <row r="382">
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.0004284173096171896</v>
+        <v>0.0008568346192343793</v>
       </c>
     </row>
     <row r="383">
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.000289181683991603</v>
+        <v>0.000578363367983206</v>
       </c>
     </row>
     <row r="384">
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.0003086551980651116</v>
+        <v>0.0006173103961302233</v>
       </c>
     </row>
     <row r="385">
@@ -4268,7 +4268,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.0004624959592458297</v>
+        <v>0.0009249919184916595</v>
       </c>
     </row>
     <row r="386">
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.0001119727059226746</v>
+        <v>0.0002239454118453491</v>
       </c>
     </row>
     <row r="387">
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.0008948079716777211</v>
+        <v>0.001789615943355442</v>
       </c>
     </row>
     <row r="388">
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.0001538407611807181</v>
+        <v>0.0003076815223614362</v>
       </c>
     </row>
     <row r="389">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.001290120307369946</v>
+        <v>0.002580240614739892</v>
       </c>
     </row>
     <row r="390">
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.0001363145985145604</v>
+        <v>0.0002726291970291207</v>
       </c>
     </row>
     <row r="391">
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.003239419066128159</v>
+        <v>0.006478838132256319</v>
       </c>
     </row>
     <row r="392">
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>4.868378518377155e-06</v>
+        <v>9.73675703675431e-06</v>
       </c>
     </row>
     <row r="393">
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.001203463169742833</v>
+        <v>0.002406926339485665</v>
       </c>
     </row>
     <row r="394">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.0002336821688821035</v>
+        <v>0.0004673643377642069</v>
       </c>
     </row>
     <row r="395">
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.0001479987069586655</v>
+        <v>0.000295997413917331</v>
       </c>
     </row>
     <row r="396">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0.0005520741239839694</v>
+        <v>0.001104148247967939</v>
       </c>
     </row>
     <row r="397">
@@ -4388,7 +4388,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>8.47097862197625e-05</v>
+        <v>0.000169419572439525</v>
       </c>
     </row>
     <row r="398">
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.000591994827834662</v>
+        <v>0.001183989655669324</v>
       </c>
     </row>
     <row r="399">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>7.984140770138534e-05</v>
+        <v>0.0001596828154027707</v>
       </c>
     </row>
     <row r="400">
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.0001752616266615776</v>
+        <v>0.0003505232533231552</v>
       </c>
     </row>
     <row r="401">
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.0007769932115329939</v>
+        <v>0.001553986423065988</v>
       </c>
     </row>
     <row r="402">
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0.0005803107193905569</v>
+        <v>0.001160621438781114</v>
       </c>
     </row>
     <row r="403">
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>2.434189259188578e-05</v>
+        <v>4.868378518377155e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.0004332856881355668</v>
+        <v>0.0008665713762711336</v>
       </c>
     </row>
     <row r="405">
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>4.478908236906983e-05</v>
+        <v>8.957816473813966e-05</v>
       </c>
     </row>
     <row r="406">
@@ -4478,7 +4478,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0.000282365954065875</v>
+        <v>0.00056473190813175</v>
       </c>
     </row>
     <row r="407">
@@ -4488,7 +4488,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.0004478908236906983</v>
+        <v>0.0008957816473813965</v>
       </c>
     </row>
     <row r="408">
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>4.771010948009612e-05</v>
+        <v>9.542021896019224e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.0001996035192534634</v>
+        <v>0.0003992070385069267</v>
       </c>
     </row>
     <row r="410">
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.000458601256431128</v>
+        <v>0.000917202512862256</v>
       </c>
     </row>
     <row r="411">
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.0001577354639954198</v>
+        <v>0.0003154709279908396</v>
       </c>
     </row>
     <row r="412">
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0.0004975482845781452</v>
+        <v>0.0009950965691562905</v>
       </c>
     </row>
     <row r="413">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0.0005501267725766185</v>
+        <v>0.001100253545153237</v>
       </c>
     </row>
     <row r="414">
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.0002804186026585242</v>
+        <v>0.0005608372053170483</v>
       </c>
     </row>
     <row r="415">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0.0003602600103599095</v>
+        <v>0.000720520020719819</v>
       </c>
     </row>
     <row r="416">
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0.0003144972522871642</v>
+        <v>0.0006289945045743284</v>
       </c>
     </row>
     <row r="417">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>8.373611051608707e-05</v>
+        <v>0.0001674722210321741</v>
       </c>
     </row>
     <row r="418">
@@ -4598,7 +4598,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.0003826545515444444</v>
+        <v>0.0007653091030888888</v>
       </c>
     </row>
     <row r="419">
@@ -4608,7 +4608,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0.0004771010948009612</v>
+        <v>0.0009542021896019224</v>
       </c>
     </row>
     <row r="420">
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.0001148937330337009</v>
+        <v>0.0002297874660674017</v>
       </c>
     </row>
     <row r="421">
@@ -4628,7 +4628,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.0005734949894648289</v>
+        <v>0.001146989978929658</v>
       </c>
     </row>
     <row r="422">
@@ -4638,7 +4638,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.0002424452502151823</v>
+        <v>0.0004848905004303647</v>
       </c>
     </row>
     <row r="423">
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>8.568346192343794e-05</v>
+        <v>0.0001713669238468759</v>
       </c>
     </row>
     <row r="424">
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>9.249919184916594e-05</v>
+        <v>0.0001849983836983319</v>
       </c>
     </row>
     <row r="425">
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.000126577841477806</v>
+        <v>0.0002531556829556121</v>
       </c>
     </row>
     <row r="426">
@@ -4678,7 +4678,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.0007127306150904155</v>
+        <v>0.001425461230180831</v>
       </c>
     </row>
     <row r="427">
@@ -4688,7 +4688,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.0003222866579165677</v>
+        <v>0.0006445733158331353</v>
       </c>
     </row>
     <row r="428">
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.0001733142752542267</v>
+        <v>0.0003466285505084535</v>
       </c>
     </row>
     <row r="429">
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.0001859720594020073</v>
+        <v>0.0003719441188040147</v>
       </c>
     </row>
     <row r="430">
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.0004994956359854961</v>
+        <v>0.0009989912719709922</v>
       </c>
     </row>
     <row r="431">
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.0003329970906569974</v>
+        <v>0.0006659941813139948</v>
       </c>
     </row>
     <row r="432">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.0004186805525804353</v>
+        <v>0.0008373611051608707</v>
       </c>
     </row>
     <row r="433">
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0.0003437075233974272</v>
+        <v>0.0006874150467948544</v>
       </c>
     </row>
     <row r="434">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.0001479987069586655</v>
+        <v>0.000295997413917331</v>
       </c>
     </row>
     <row r="435">
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0.00137872479640441</v>
+        <v>0.002757449592808821</v>
       </c>
     </row>
     <row r="436">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.0006143893690191969</v>
+        <v>0.001228778738038394</v>
       </c>
     </row>
     <row r="437">
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.0006095209905008198</v>
+        <v>0.00121904198100164</v>
       </c>
     </row>
     <row r="438">
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.0005608372053170483</v>
+        <v>0.001121674410634097</v>
       </c>
     </row>
     <row r="439">
@@ -4808,7 +4808,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.0002473136287335595</v>
+        <v>0.000494627257467119</v>
       </c>
     </row>
     <row r="440">
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.000438154066653944</v>
+        <v>0.000876308133307888</v>
       </c>
     </row>
     <row r="441">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.0001411829770329375</v>
+        <v>0.000282365954065875</v>
       </c>
     </row>
     <row r="442">
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>4.186805525804354e-05</v>
+        <v>8.373611051608707e-05</v>
       </c>
     </row>
     <row r="443">
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.0001957088164387617</v>
+        <v>0.0003914176328775233</v>
       </c>
     </row>
     <row r="444">
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>8.373611051608707e-05</v>
+        <v>0.0001674722210321741</v>
       </c>
     </row>
     <row r="445">
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.0002736028727327961</v>
+        <v>0.0005472057454655923</v>
       </c>
     </row>
     <row r="446">
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0.0001421566527366129</v>
+        <v>0.0002843133054732259</v>
       </c>
     </row>
     <row r="447">
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>9.639389466386767e-05</v>
+        <v>0.0001927877893277353</v>
       </c>
     </row>
     <row r="448">
@@ -4898,7 +4898,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0.0001431303284402884</v>
+        <v>0.0002862606568805767</v>
       </c>
     </row>
     <row r="449">
@@ -4908,7 +4908,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.0001372882742182358</v>
+        <v>0.0002745765484364715</v>
       </c>
     </row>
     <row r="450">
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0.0007818615900513712</v>
+        <v>0.001563723180102742</v>
       </c>
     </row>
     <row r="451">
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0.000232708493178428</v>
+        <v>0.000465416986356856</v>
       </c>
     </row>
     <row r="452">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0.0001372882742182358</v>
+        <v>0.0002745765484364715</v>
       </c>
     </row>
     <row r="453">
@@ -4948,7 +4948,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.0001742879509579022</v>
+        <v>0.0003485759019158043</v>
       </c>
     </row>
     <row r="454">
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>3.407864962864009e-05</v>
+        <v>6.815729925728018e-05</v>
       </c>
     </row>
     <row r="455">
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0.0001509197340696918</v>
+        <v>0.0003018394681393836</v>
       </c>
     </row>
     <row r="456">
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0.0009327813241210629</v>
+        <v>0.001865562648242126</v>
       </c>
     </row>
     <row r="457">
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>7.886773199770991e-05</v>
+        <v>0.0001577354639954198</v>
       </c>
     </row>
     <row r="458">
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.0004712590405789086</v>
+        <v>0.0009425180811578173</v>
       </c>
     </row>
     <row r="459">
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.0009318076484173875</v>
+        <v>0.001863615296834775</v>
       </c>
     </row>
     <row r="460">
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0.0001772089780689285</v>
+        <v>0.0003544179561378569</v>
       </c>
     </row>
     <row r="461">
@@ -5028,7 +5028,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0.0001246304900704552</v>
+        <v>0.0002492609801409103</v>
       </c>
     </row>
     <row r="462">
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0.000295997413917331</v>
+        <v>0.000591994827834662</v>
       </c>
     </row>
     <row r="463">
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0.0001207357872557535</v>
+        <v>0.0002414715745115069</v>
       </c>
     </row>
     <row r="464">
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0.0002599714128813401</v>
+        <v>0.0005199428257626801</v>
       </c>
     </row>
     <row r="465">
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0.000833466402346169</v>
+        <v>0.001666932804692338</v>
       </c>
     </row>
     <row r="466">
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0.0001684458967358496</v>
+        <v>0.0003368917934716991</v>
       </c>
     </row>
     <row r="467">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.0002064192491791914</v>
+        <v>0.0004128384983583828</v>
       </c>
     </row>
     <row r="468">
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>2.044718977718405e-05</v>
+        <v>4.08943795543681e-05</v>
       </c>
     </row>
     <row r="469">
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.0001966824921424371</v>
+        <v>0.0003933649842848741</v>
       </c>
     </row>
     <row r="470">
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0.0001499460583660164</v>
+        <v>0.0002998921167320327</v>
       </c>
     </row>
     <row r="471">
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>3.310497392496466e-05</v>
+        <v>6.620994784992931e-05</v>
       </c>
     </row>
     <row r="472">
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.0004040754170253039</v>
+        <v>0.0008081508340506078</v>
       </c>
     </row>
     <row r="473">
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0.000275550224140147</v>
+        <v>0.000551100448280294</v>
       </c>
     </row>
     <row r="474">
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>3.505232533231552e-05</v>
+        <v>7.010465066463104e-05</v>
       </c>
     </row>
     <row r="475">
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0.0004858641761340401</v>
+        <v>0.0009717283522680802</v>
       </c>
     </row>
     <row r="476">
@@ -5178,7 +5178,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0.0003894702814701724</v>
+        <v>0.0007789405629403448</v>
       </c>
     </row>
     <row r="477">
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0.0002385505474004806</v>
+        <v>0.0004771010948009612</v>
       </c>
     </row>
     <row r="478">
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>5.35521637021487e-05</v>
+        <v>0.0001071043274042974</v>
       </c>
     </row>
     <row r="479">
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0.0001898667622167091</v>
+        <v>0.0003797335244334181</v>
       </c>
     </row>
     <row r="480">
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>8.178875910873621e-05</v>
+        <v>0.0001635775182174724</v>
       </c>
     </row>
     <row r="481">
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1.168410844410517e-05</v>
+        <v>2.336821688821034e-05</v>
       </c>
     </row>
     <row r="482">
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0.0001392356256255866</v>
+        <v>0.0002784712512511733</v>
       </c>
     </row>
     <row r="483">
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1.849983836983319e-05</v>
+        <v>3.699967673966638e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>9.73675703675431e-06</v>
+        <v>1.947351407350862e-05</v>
       </c>
     </row>
     <row r="485">
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0.0004722327162825841</v>
+        <v>0.0009444654325651682</v>
       </c>
     </row>
     <row r="486">
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0.0002921027111026293</v>
+        <v>0.0005842054222052587</v>
       </c>
     </row>
     <row r="487">
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0.0003495495776194798</v>
+        <v>0.0006990991552389595</v>
       </c>
     </row>
     <row r="488">
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0.0002366031959931297</v>
+        <v>0.0004732063919862595</v>
       </c>
     </row>
     <row r="489">
@@ -5308,7 +5308,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0.0002034982220681651</v>
+        <v>0.0004069964441363302</v>
       </c>
     </row>
     <row r="490">
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0.0004751537433936104</v>
+        <v>0.0009503074867872207</v>
       </c>
     </row>
     <row r="491">
@@ -5328,7 +5328,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>7.399935347933275e-05</v>
+        <v>0.0001479987069586655</v>
       </c>
     </row>
     <row r="492">
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0.000494627257467119</v>
+        <v>0.000989254514934238</v>
       </c>
     </row>
     <row r="493">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0.0001119727059226746</v>
+        <v>0.0002239454118453491</v>
       </c>
     </row>
     <row r="494">
@@ -5358,7 +5358,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0.0002161560062159457</v>
+        <v>0.0004323120124318914</v>
       </c>
     </row>
     <row r="495">
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0.000212261303401244</v>
+        <v>0.000424522606802488</v>
       </c>
     </row>
     <row r="496">
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0.0001071043274042974</v>
+        <v>0.0002142086548085948</v>
       </c>
     </row>
     <row r="497">
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>4.284173096171897e-05</v>
+        <v>8.568346192343794e-05</v>
       </c>
     </row>
     <row r="498">
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>7.497302918300818e-05</v>
+        <v>0.0001499460583660164</v>
       </c>
     </row>
     <row r="499">
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>8.957816473813966e-05</v>
+        <v>0.0001791563294762793</v>
       </c>
     </row>
     <row r="500">
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>9.639389466386767e-05</v>
+        <v>0.0001927877893277353</v>
       </c>
     </row>
     <row r="501">
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0.0003368917934716991</v>
+        <v>0.0006737835869433982</v>
       </c>
     </row>
     <row r="502">
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>4.284173096171897e-05</v>
+        <v>8.568346192343794e-05</v>
       </c>
     </row>
     <row r="503">
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0.0001791563294762793</v>
+        <v>0.0003583126589525587</v>
       </c>
     </row>
     <row r="504">
@@ -5458,7 +5458,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0.0006202314232412496</v>
+        <v>0.001240462846482499</v>
       </c>
     </row>
     <row r="505">
@@ -5468,7 +5468,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>7.302567777565733e-05</v>
+        <v>0.0001460513555513147</v>
       </c>
     </row>
     <row r="506">
@@ -5478,7 +5478,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>7.789405629403448e-05</v>
+        <v>0.000155788112588069</v>
       </c>
     </row>
     <row r="507">
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>7.302567777565733e-05</v>
+        <v>0.0001460513555513147</v>
       </c>
     </row>
     <row r="508">
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1.849983836983319e-05</v>
+        <v>3.699967673966638e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5508,7 +5508,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>5.549951510949957e-05</v>
+        <v>0.0001109990302189991</v>
       </c>
     </row>
     <row r="510">
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0.0001178147601447272</v>
+        <v>0.0002356295202894543</v>
       </c>
     </row>
     <row r="511">
@@ -5528,7 +5528,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0.0003310497392496466</v>
+        <v>0.0006620994784992931</v>
       </c>
     </row>
     <row r="512">
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0.0001450776798476392</v>
+        <v>0.0002901553596952784</v>
       </c>
     </row>
     <row r="513">
@@ -5548,7 +5548,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0.0001041833002932711</v>
+        <v>0.0002083666005865423</v>
       </c>
     </row>
     <row r="514">
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0.0002346558445857789</v>
+        <v>0.0004693116891715577</v>
       </c>
     </row>
     <row r="515">
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1.460513555513147e-05</v>
+        <v>2.921027111026293e-05</v>
       </c>
     </row>
     <row r="516">
@@ -5578,7 +5578,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>7.789405629403448e-06</v>
+        <v>1.55788112588069e-05</v>
       </c>
     </row>
     <row r="517">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0.0001080780031079728</v>
+        <v>0.0002161560062159457</v>
       </c>
     </row>
     <row r="518">
@@ -5598,7 +5598,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0.0003174182793981905</v>
+        <v>0.0006348365587963811</v>
       </c>
     </row>
     <row r="519">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0.0001314462199961832</v>
+        <v>0.0002628924399923664</v>
       </c>
     </row>
     <row r="520">
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0.0004917062303560927</v>
+        <v>0.0009834124607121853</v>
       </c>
     </row>
     <row r="521">
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>6.328892073890302e-05</v>
+        <v>0.000126577841477806</v>
       </c>
     </row>
     <row r="522">
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0.0001616301668101216</v>
+        <v>0.0003232603336202431</v>
       </c>
     </row>
     <row r="523">
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0.0004722327162825841</v>
+        <v>0.0009444654325651682</v>
       </c>
     </row>
     <row r="524">
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0.0002142086548085948</v>
+        <v>0.0004284173096171896</v>
       </c>
     </row>
     <row r="525">
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0.0007847826171623974</v>
+        <v>0.001569565234324795</v>
       </c>
     </row>
     <row r="526">
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1.363145985145603e-05</v>
+        <v>2.726291970291207e-05</v>
       </c>
     </row>
     <row r="527">
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0.0002492609801409103</v>
+        <v>0.0004985219602818207</v>
       </c>
     </row>
     <row r="528">
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0.0004167332011730845</v>
+        <v>0.000833466402346169</v>
       </c>
     </row>
     <row r="529">
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0.0001002885974785694</v>
+        <v>0.0002005771949571388</v>
       </c>
     </row>
     <row r="530">
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>0.001740932158171671</v>
+        <v>0.003481864316343342</v>
       </c>
     </row>
     <row r="531">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0.0002103139519938931</v>
+        <v>0.0004206279039877862</v>
       </c>
     </row>
     <row r="532">
@@ -5738,7 +5738,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0.0001548144368843935</v>
+        <v>0.0003096288737687871</v>
       </c>
     </row>
     <row r="533">
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>3.699967673966638e-05</v>
+        <v>7.399935347933275e-05</v>
       </c>
     </row>
     <row r="534">
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0.0001402093013292621</v>
+        <v>0.0002804186026585242</v>
       </c>
     </row>
     <row r="535">
@@ -5768,7 +5768,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>4.868378518377155e-05</v>
+        <v>9.73675703675431e-05</v>
       </c>
     </row>
     <row r="536">
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0.0001996035192534634</v>
+        <v>0.0003992070385069267</v>
       </c>
     </row>
     <row r="537">
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>8.860448903446423e-05</v>
+        <v>0.0001772089780689285</v>
       </c>
     </row>
     <row r="538">
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>7.594670488668362e-05</v>
+        <v>0.0001518934097733672</v>
       </c>
     </row>
     <row r="539">
@@ -5808,7 +5808,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0.0003232603336202431</v>
+        <v>0.0006465206672404862</v>
       </c>
     </row>
     <row r="540">
@@ -5818,7 +5818,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>2.726291970291207e-05</v>
+        <v>5.452583940582414e-05</v>
       </c>
     </row>
     <row r="541">
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0.0002930763868063047</v>
+        <v>0.0005861527736126095</v>
       </c>
     </row>
     <row r="542">
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>4.08943795543681e-05</v>
+        <v>8.178875910873621e-05</v>
       </c>
     </row>
     <row r="543">
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>7.789405629403448e-05</v>
+        <v>0.000155788112588069</v>
       </c>
     </row>
     <row r="544">
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0.0001645511939211478</v>
+        <v>0.0003291023878422957</v>
       </c>
     </row>
     <row r="545">
@@ -5868,7 +5868,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0.0001820773565873056</v>
+        <v>0.0003641547131746112</v>
       </c>
     </row>
     <row r="546">
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>6.134156933155215e-05</v>
+        <v>0.0001226831386631043</v>
       </c>
     </row>
     <row r="547">
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0.0001275515171814815</v>
+        <v>0.000255103034362963</v>
       </c>
     </row>
     <row r="548">
@@ -5898,7 +5898,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0.0001460513555513147</v>
+        <v>0.0002921027111026293</v>
       </c>
     </row>
     <row r="549">
@@ -5908,7 +5908,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0.0003028131438430591</v>
+        <v>0.0006056262876861182</v>
       </c>
     </row>
     <row r="550">
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0.0002638661156960418</v>
+        <v>0.0005277322313920836</v>
       </c>
     </row>
     <row r="551">
@@ -5928,7 +5928,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0.0001791563294762793</v>
+        <v>0.0003583126589525587</v>
       </c>
     </row>
     <row r="552">
@@ -5938,7 +5938,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>7.886773199770991e-05</v>
+        <v>0.0001577354639954198</v>
       </c>
     </row>
     <row r="553">
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0.0001616301668101216</v>
+        <v>0.0003232603336202431</v>
       </c>
     </row>
     <row r="554">
@@ -5958,7 +5958,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1.363145985145603e-05</v>
+        <v>2.726291970291207e-05</v>
       </c>
     </row>
     <row r="555">
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>5.93942179242013e-05</v>
+        <v>0.0001187884358484026</v>
       </c>
     </row>
     <row r="556">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0.000381680875840769</v>
+        <v>0.0007633617516815379</v>
       </c>
     </row>
     <row r="557">
@@ -5988,7 +5988,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0.0001518934097733672</v>
+        <v>0.0003037868195467345</v>
       </c>
     </row>
     <row r="558">
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>2.82365954065875e-05</v>
+        <v>5.6473190813175e-05</v>
       </c>
     </row>
     <row r="559">
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0.0003894702814701724</v>
+        <v>0.0007789405629403448</v>
       </c>
     </row>
     <row r="560">
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0.0001470250312549901</v>
+        <v>0.0002940500625099802</v>
       </c>
     </row>
     <row r="561">
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0.0002424452502151823</v>
+        <v>0.0004848905004303647</v>
       </c>
     </row>
     <row r="562">
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>4.576275807274526e-05</v>
+        <v>9.152551614549051e-05</v>
       </c>
     </row>
     <row r="563">
@@ -6048,7 +6048,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>2.531556829556121e-05</v>
+        <v>5.063113659112242e-05</v>
       </c>
     </row>
     <row r="564">
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>4.478908236906983e-05</v>
+        <v>8.957816473813966e-05</v>
       </c>
     </row>
     <row r="565">
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>3.992070385069267e-05</v>
+        <v>7.984140770138534e-05</v>
       </c>
     </row>
     <row r="566">
@@ -6078,7 +6078,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>2.044718977718405e-05</v>
+        <v>4.08943795543681e-05</v>
       </c>
     </row>
     <row r="567">
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>3.894702814701724e-05</v>
+        <v>7.789405629403448e-05</v>
       </c>
     </row>
     <row r="568">
@@ -6098,7 +6098,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0.0003154709279908396</v>
+        <v>0.0006309418559816793</v>
       </c>
     </row>
     <row r="569">
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0.0001080780031079728</v>
+        <v>0.0002161560062159457</v>
       </c>
     </row>
     <row r="570">
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0.0001918141136240599</v>
+        <v>0.0003836282272481199</v>
       </c>
     </row>
     <row r="571">
@@ -6128,7 +6128,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0.0002473136287335595</v>
+        <v>0.000494627257467119</v>
       </c>
     </row>
     <row r="572">
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>2.921027111026293e-05</v>
+        <v>5.842054222052586e-05</v>
       </c>
     </row>
     <row r="573">
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0.000106130651700622</v>
+        <v>0.000212261303401244</v>
       </c>
     </row>
     <row r="574">
@@ -6158,7 +6158,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0.0004069964441363302</v>
+        <v>0.0008139928882726603</v>
       </c>
     </row>
     <row r="575">
@@ -6168,7 +6168,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>8.957816473813966e-05</v>
+        <v>0.0001791563294762793</v>
       </c>
     </row>
     <row r="576">
@@ -6178,7 +6178,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>6.426259644257845e-05</v>
+        <v>0.0001285251928851569</v>
       </c>
     </row>
     <row r="577">
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0.0002930763868063047</v>
+        <v>0.0005861527736126095</v>
       </c>
     </row>
     <row r="578">
@@ -6198,7 +6198,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0.000169419572439525</v>
+        <v>0.00033883914487905</v>
       </c>
     </row>
     <row r="579">
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0.0002736028727327961</v>
+        <v>0.0005472057454655923</v>
       </c>
     </row>
     <row r="580">
@@ -6218,7 +6218,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0.0001528670854770427</v>
+        <v>0.0003057341709540854</v>
       </c>
     </row>
     <row r="581">
@@ -6228,7 +6228,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0.0001840247079946565</v>
+        <v>0.0003680494159893129</v>
       </c>
     </row>
     <row r="582">
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>3.505232533231552e-05</v>
+        <v>7.010465066463104e-05</v>
       </c>
     </row>
     <row r="583">
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>4.08943795543681e-05</v>
+        <v>8.178875910873621e-05</v>
       </c>
     </row>
     <row r="584">
@@ -6258,7 +6258,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0.0001217094629594289</v>
+        <v>0.0002434189259188578</v>
       </c>
     </row>
     <row r="585">
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>3.992070385069267e-05</v>
+        <v>7.984140770138534e-05</v>
       </c>
     </row>
     <row r="586">
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0.0002366031959931297</v>
+        <v>0.0004732063919862595</v>
       </c>
     </row>
     <row r="587">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0.0001966824921424371</v>
+        <v>0.0003933649842848741</v>
       </c>
     </row>
     <row r="588">
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>8.081508340506078e-05</v>
+        <v>0.0001616301668101216</v>
       </c>
     </row>
     <row r="589">
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>6.036789362787673e-05</v>
+        <v>0.0001207357872557535</v>
       </c>
     </row>
     <row r="590">
@@ -6318,7 +6318,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0.000183051032290981</v>
+        <v>0.0003661020645819621</v>
       </c>
     </row>
     <row r="591">
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="592">
@@ -6338,7 +6338,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>3.018394681393836e-05</v>
+        <v>6.036789362787673e-05</v>
       </c>
     </row>
     <row r="593">
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>2.82365954065875e-05</v>
+        <v>5.6473190813175e-05</v>
       </c>
     </row>
     <row r="594">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>6.913097496095561e-05</v>
+        <v>0.0001382619499219112</v>
       </c>
     </row>
     <row r="595">
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0.0004420487694686457</v>
+        <v>0.0008840975389372914</v>
       </c>
     </row>
     <row r="596">
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0.0001119727059226746</v>
+        <v>0.0002239454118453491</v>
       </c>
     </row>
     <row r="597">
@@ -6388,7 +6388,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="598">
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0.0001256041657741306</v>
+        <v>0.0002512083315482612</v>
       </c>
     </row>
     <row r="599">
@@ -6408,7 +6408,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>9.444654325651681e-05</v>
+        <v>0.0001888930865130336</v>
       </c>
     </row>
     <row r="600">
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0.0001684458967358496</v>
+        <v>0.0003368917934716991</v>
       </c>
     </row>
     <row r="601">
@@ -6428,7 +6428,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>2.726291970291207e-05</v>
+        <v>5.452583940582414e-05</v>
       </c>
     </row>
     <row r="602">
@@ -6438,7 +6438,7 @@
         </is>
       </c>
       <c r="B602" t="n">
-        <v>2.044718977718405e-05</v>
+        <v>4.08943795543681e-05</v>
       </c>
     </row>
     <row r="603">
@@ -6448,7 +6448,7 @@
         </is>
       </c>
       <c r="B603" t="n">
-        <v>3.407864962864009e-05</v>
+        <v>6.815729925728018e-05</v>
       </c>
     </row>
     <row r="604">
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0.0003729177945076901</v>
+        <v>0.0007458355890153802</v>
       </c>
     </row>
     <row r="605">
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="B605" t="n">
-        <v>5.842054222052586e-05</v>
+        <v>0.0001168410844410517</v>
       </c>
     </row>
     <row r="606">
@@ -6478,7 +6478,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>2.531556829556121e-05</v>
+        <v>5.063113659112242e-05</v>
       </c>
     </row>
     <row r="607">
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>8.665713762711337e-05</v>
+        <v>0.0001733142752542267</v>
       </c>
     </row>
     <row r="608">
@@ -6498,7 +6498,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="609">
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>2.142086548085948e-05</v>
+        <v>4.284173096171897e-05</v>
       </c>
     </row>
     <row r="610">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0.0001294988685888323</v>
+        <v>0.0002589977371776647</v>
       </c>
     </row>
     <row r="611">
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="B611" t="n">
-        <v>6.913097496095561e-05</v>
+        <v>0.0001382619499219112</v>
       </c>
     </row>
     <row r="612">
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>7.984140770138534e-05</v>
+        <v>0.0001596828154027707</v>
       </c>
     </row>
     <row r="613">
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0.0001411829770329375</v>
+        <v>0.000282365954065875</v>
       </c>
     </row>
     <row r="614">
@@ -6558,7 +6558,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0.0001168410844410517</v>
+        <v>0.0002336821688821035</v>
       </c>
     </row>
     <row r="615">
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0.0001275515171814815</v>
+        <v>0.000255103034362963</v>
       </c>
     </row>
     <row r="616">
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0.0001187884358484026</v>
+        <v>0.0002375768716968052</v>
       </c>
     </row>
     <row r="617">
@@ -6588,7 +6588,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>3.894702814701724e-06</v>
+        <v>7.789405629403448e-06</v>
       </c>
     </row>
     <row r="618">
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>5.549951510949957e-05</v>
+        <v>0.0001109990302189991</v>
       </c>
     </row>
     <row r="619">
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>8.081508340506078e-05</v>
+        <v>0.0001616301668101216</v>
       </c>
     </row>
     <row r="620">
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="B620" t="n">
-        <v>0.0001256041657741306</v>
+        <v>0.0002512083315482612</v>
       </c>
     </row>
     <row r="621">
@@ -6628,7 +6628,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>9.152551614549051e-05</v>
+        <v>0.000183051032290981</v>
       </c>
     </row>
     <row r="622">
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0.0001509197340696918</v>
+        <v>0.0003018394681393836</v>
       </c>
     </row>
     <row r="623">
@@ -6648,7 +6648,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0.0002911290353989539</v>
+        <v>0.0005822580707979078</v>
       </c>
     </row>
     <row r="624">
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0.0001246304900704552</v>
+        <v>0.0002492609801409103</v>
       </c>
     </row>
     <row r="625">
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0.0001080780031079728</v>
+        <v>0.0002161560062159457</v>
       </c>
     </row>
     <row r="626">
@@ -6678,7 +6678,7 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>2.434189259188578e-05</v>
+        <v>4.868378518377155e-05</v>
       </c>
     </row>
     <row r="627">
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>3.602600103599095e-05</v>
+        <v>7.20520020719819e-05</v>
       </c>
     </row>
     <row r="628">
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>9.73675703675431e-05</v>
+        <v>0.0001947351407350862</v>
       </c>
     </row>
     <row r="629">
@@ -6708,7 +6708,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>8.76308133307888e-05</v>
+        <v>0.0001752616266615776</v>
       </c>
     </row>
     <row r="630">
@@ -6718,7 +6718,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="631">
@@ -6728,7 +6728,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0.0001450776798476392</v>
+        <v>0.0002901553596952784</v>
       </c>
     </row>
     <row r="632">
@@ -6738,7 +6738,7 @@
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0.0002064192491791914</v>
+        <v>0.0004128384983583828</v>
       </c>
     </row>
     <row r="633">
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>2.921027111026293e-05</v>
+        <v>5.842054222052586e-05</v>
       </c>
     </row>
     <row r="634">
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="B634" t="n">
-        <v>3.602600103599095e-05</v>
+        <v>7.20520020719819e-05</v>
       </c>
     </row>
     <row r="635">
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0.0001178147601447272</v>
+        <v>0.0002356295202894543</v>
       </c>
     </row>
     <row r="636">
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0.0001051569759969466</v>
+        <v>0.0002103139519938931</v>
       </c>
     </row>
     <row r="637">
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>8.76308133307888e-06</v>
+        <v>1.752616266615776e-05</v>
       </c>
     </row>
     <row r="638">
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>2.142086548085948e-05</v>
+        <v>4.284173096171897e-05</v>
       </c>
     </row>
     <row r="639">
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>0.00011294638162635</v>
+        <v>0.0002258927632527</v>
       </c>
     </row>
     <row r="640">
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="B640" t="n">
-        <v>0.0001022359488859203</v>
+        <v>0.0002044718977718405</v>
       </c>
     </row>
     <row r="641">
@@ -6828,7 +6828,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>7.789405629403448e-05</v>
+        <v>0.000155788112588069</v>
       </c>
     </row>
     <row r="642">
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0.0001168410844410517</v>
+        <v>0.0002336821688821035</v>
       </c>
     </row>
     <row r="643">
@@ -6848,7 +6848,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>7.107832636830647e-05</v>
+        <v>0.0001421566527366129</v>
       </c>
     </row>
     <row r="644">
@@ -6858,7 +6858,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>5.93942179242013e-05</v>
+        <v>0.0001187884358484026</v>
       </c>
     </row>
     <row r="645">
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="B645" t="n">
-        <v>2.628924399923664e-05</v>
+        <v>5.257848799847328e-05</v>
       </c>
     </row>
     <row r="646">
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>2.628924399923664e-05</v>
+        <v>5.257848799847328e-05</v>
       </c>
     </row>
     <row r="647">
@@ -6888,7 +6888,7 @@
         </is>
       </c>
       <c r="B647" t="n">
-        <v>3.894702814701724e-05</v>
+        <v>7.789405629403448e-05</v>
       </c>
     </row>
     <row r="648">
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>5.35521637021487e-05</v>
+        <v>0.0001071043274042974</v>
       </c>
     </row>
     <row r="649">
@@ -6908,7 +6908,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="650">
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>1.071043274042974e-05</v>
+        <v>2.142086548085948e-05</v>
       </c>
     </row>
     <row r="651">
@@ -6928,7 +6928,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>4.478908236906983e-05</v>
+        <v>8.957816473813966e-05</v>
       </c>
     </row>
     <row r="652">
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>5.6473190813175e-05</v>
+        <v>0.00011294638162635</v>
       </c>
     </row>
     <row r="653">
@@ -6948,7 +6948,7 @@
         </is>
       </c>
       <c r="B653" t="n">
-        <v>0.0001402093013292621</v>
+        <v>0.0002804186026585242</v>
       </c>
     </row>
     <row r="654">
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0.0001041833002932711</v>
+        <v>0.0002083666005865423</v>
       </c>
     </row>
     <row r="655">
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="B655" t="n">
-        <v>5.160481229479785e-05</v>
+        <v>0.0001032096245895957</v>
       </c>
     </row>
     <row r="656">
@@ -6978,7 +6978,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>3.894702814701724e-05</v>
+        <v>7.789405629403448e-05</v>
       </c>
     </row>
     <row r="657">
@@ -6988,7 +6988,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>2.044718977718405e-05</v>
+        <v>4.08943795543681e-05</v>
       </c>
     </row>
     <row r="658">
@@ -6998,7 +6998,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>5.063113659112242e-05</v>
+        <v>0.0001012622731822448</v>
       </c>
     </row>
     <row r="659">
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="B659" t="n">
-        <v>8.76308133307888e-06</v>
+        <v>1.752616266615776e-05</v>
       </c>
     </row>
     <row r="660">
@@ -7018,7 +7018,7 @@
         </is>
       </c>
       <c r="B660" t="n">
-        <v>9.347286755284138e-05</v>
+        <v>0.0001869457351056828</v>
       </c>
     </row>
     <row r="661">
@@ -7028,7 +7028,7 @@
         </is>
       </c>
       <c r="B661" t="n">
-        <v>2.531556829556121e-05</v>
+        <v>5.063113659112242e-05</v>
       </c>
     </row>
     <row r="662">
@@ -7038,7 +7038,7 @@
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1.849983836983319e-05</v>
+        <v>3.699967673966638e-05</v>
       </c>
     </row>
     <row r="663">
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="B663" t="n">
-        <v>2.921027111026293e-05</v>
+        <v>5.842054222052586e-05</v>
       </c>
     </row>
     <row r="664">
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="B664" t="n">
-        <v>3.797335244334181e-05</v>
+        <v>7.594670488668362e-05</v>
       </c>
     </row>
     <row r="665">
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1.460513555513147e-05</v>
+        <v>2.921027111026293e-05</v>
       </c>
     </row>
     <row r="666">
@@ -7078,7 +7078,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1.849983836983319e-05</v>
+        <v>3.699967673966638e-05</v>
       </c>
     </row>
     <row r="667">
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1.460513555513147e-05</v>
+        <v>2.921027111026293e-05</v>
       </c>
     </row>
     <row r="668">
@@ -7098,7 +7098,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>2.921027111026293e-05</v>
+        <v>5.842054222052586e-05</v>
       </c>
     </row>
     <row r="669">
@@ -7108,7 +7108,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>7.594670488668362e-05</v>
+        <v>0.0001518934097733672</v>
       </c>
     </row>
     <row r="670">
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0.0002609450885850155</v>
+        <v>0.000521890177170031</v>
       </c>
     </row>
     <row r="671">
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1.071043274042974e-05</v>
+        <v>2.142086548085948e-05</v>
       </c>
     </row>
     <row r="672">
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1.849983836983319e-05</v>
+        <v>3.699967673966638e-05</v>
       </c>
     </row>
     <row r="673">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1.363145985145603e-05</v>
+        <v>2.726291970291207e-05</v>
       </c>
     </row>
     <row r="674">
@@ -7158,7 +7158,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>4.38154066653944e-05</v>
+        <v>8.76308133307888e-05</v>
       </c>
     </row>
     <row r="675">
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1.363145985145603e-05</v>
+        <v>2.726291970291207e-05</v>
       </c>
     </row>
     <row r="676">
@@ -7178,7 +7178,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>6.620994784992931e-05</v>
+        <v>0.0001324198956998586</v>
       </c>
     </row>
     <row r="677">
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>4.965746088744698e-05</v>
+        <v>9.931492177489397e-05</v>
       </c>
     </row>
     <row r="678">
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="679">
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>9.444654325651681e-05</v>
+        <v>0.0001888930865130336</v>
       </c>
     </row>
     <row r="680">
@@ -7218,7 +7218,7 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>7.692038059035905e-05</v>
+        <v>0.0001538407611807181</v>
       </c>
     </row>
     <row r="681">
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="682">
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="B682" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="683">
@@ -7248,7 +7248,7 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>0.000119762111552078</v>
+        <v>0.000239524223104156</v>
       </c>
     </row>
     <row r="684">
@@ -7258,7 +7258,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>8.568346192343794e-05</v>
+        <v>0.0001713669238468759</v>
       </c>
     </row>
     <row r="685">
@@ -7268,7 +7268,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>3.505232533231552e-05</v>
+        <v>7.010465066463104e-05</v>
       </c>
     </row>
     <row r="686">
@@ -7278,7 +7278,7 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1.460513555513147e-05</v>
+        <v>2.921027111026293e-05</v>
       </c>
     </row>
     <row r="687">
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>3.894702814701724e-05</v>
+        <v>7.789405629403448e-05</v>
       </c>
     </row>
     <row r="688">
@@ -7298,7 +7298,7 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>9.639389466386767e-05</v>
+        <v>0.0001927877893277353</v>
       </c>
     </row>
     <row r="689">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>8.373611051608707e-05</v>
+        <v>0.0001674722210321741</v>
       </c>
     </row>
     <row r="690">
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>1.26577841477806e-05</v>
+        <v>2.531556829556121e-05</v>
       </c>
     </row>
     <row r="691">
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>3.894702814701724e-05</v>
+        <v>7.789405629403448e-05</v>
       </c>
     </row>
     <row r="692">
@@ -7338,7 +7338,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>5.744686651685043e-05</v>
+        <v>0.0001148937330337009</v>
       </c>
     </row>
     <row r="693">
@@ -7348,7 +7348,7 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>6.134156933155215e-05</v>
+        <v>0.0001226831386631043</v>
       </c>
     </row>
     <row r="694">
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>3.699967673966638e-05</v>
+        <v>7.399935347933275e-05</v>
       </c>
     </row>
     <row r="695">
@@ -7368,7 +7368,7 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="696">
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="B696" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="697">
@@ -7388,7 +7388,7 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>4.673643377642069e-05</v>
+        <v>9.347286755284138e-05</v>
       </c>
     </row>
     <row r="698">
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>9.152551614549051e-05</v>
+        <v>0.000183051032290981</v>
       </c>
     </row>
     <row r="699">
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="700">
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0.0001801300051799547</v>
+        <v>0.0003602600103599095</v>
       </c>
     </row>
     <row r="701">
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>0.0001411829770329375</v>
+        <v>0.000282365954065875</v>
       </c>
     </row>
     <row r="702">
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="703">
@@ -7448,7 +7448,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1.655248696248233e-05</v>
+        <v>3.310497392496466e-05</v>
       </c>
     </row>
     <row r="704">
@@ -7458,7 +7458,7 @@
         </is>
       </c>
       <c r="B704" t="n">
-        <v>1.071043274042974e-05</v>
+        <v>2.142086548085948e-05</v>
       </c>
     </row>
     <row r="705">
@@ -7468,7 +7468,7 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>2.336821688821034e-05</v>
+        <v>4.673643377642069e-05</v>
       </c>
     </row>
     <row r="706">
@@ -7478,7 +7478,7 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>4.284173096171897e-05</v>
+        <v>8.568346192343794e-05</v>
       </c>
     </row>
     <row r="707">
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>4.771010948009612e-05</v>
+        <v>9.542021896019224e-05</v>
       </c>
     </row>
     <row r="708">
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1.752616266615776e-05</v>
+        <v>3.505232533231552e-05</v>
       </c>
     </row>
     <row r="709">
@@ -7508,7 +7508,7 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>2.336821688821034e-05</v>
+        <v>4.673643377642069e-05</v>
       </c>
     </row>
     <row r="710">
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="711">
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="712">
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>3.310497392496466e-05</v>
+        <v>6.620994784992931e-05</v>
       </c>
     </row>
     <row r="713">
@@ -7548,7 +7548,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>1.071043274042974e-05</v>
+        <v>2.142086548085948e-05</v>
       </c>
     </row>
     <row r="714">
@@ -7558,7 +7558,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>3.699967673966638e-05</v>
+        <v>7.399935347933275e-05</v>
       </c>
     </row>
     <row r="715">
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1.55788112588069e-05</v>
+        <v>3.115762251761379e-05</v>
       </c>
     </row>
     <row r="716">
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>6.134156933155215e-05</v>
+        <v>0.0001226831386631043</v>
       </c>
     </row>
     <row r="717">
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>8.76308133307888e-06</v>
+        <v>1.752616266615776e-05</v>
       </c>
     </row>
     <row r="718">
@@ -7598,7 +7598,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1.26577841477806e-05</v>
+        <v>2.531556829556121e-05</v>
       </c>
     </row>
     <row r="719">
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>1.363145985145603e-05</v>
+        <v>2.726291970291207e-05</v>
       </c>
     </row>
     <row r="720">
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>7.886773199770991e-05</v>
+        <v>0.0001577354639954198</v>
       </c>
     </row>
     <row r="721">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="722">
@@ -7638,7 +7638,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="723">
@@ -7648,7 +7648,7 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="724">
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1.752616266615776e-05</v>
+        <v>3.505232533231552e-05</v>
       </c>
     </row>
     <row r="725">
@@ -7668,7 +7668,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>2.531556829556121e-05</v>
+        <v>5.063113659112242e-05</v>
       </c>
     </row>
     <row r="726">
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>8.76308133307888e-06</v>
+        <v>1.752616266615776e-05</v>
       </c>
     </row>
     <row r="727">
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="728">
@@ -7698,7 +7698,7 @@
         </is>
       </c>
       <c r="B728" t="n">
-        <v>2.239454118453492e-05</v>
+        <v>4.478908236906983e-05</v>
       </c>
     </row>
     <row r="729">
@@ -7708,7 +7708,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>1.071043274042974e-05</v>
+        <v>2.142086548085948e-05</v>
       </c>
     </row>
     <row r="730">
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>9.73675703675431e-06</v>
+        <v>1.947351407350862e-05</v>
       </c>
     </row>
     <row r="731">
@@ -7728,7 +7728,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>3.699967673966638e-05</v>
+        <v>7.399935347933275e-05</v>
       </c>
     </row>
     <row r="732">
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>1.26577841477806e-05</v>
+        <v>2.531556829556121e-05</v>
       </c>
     </row>
     <row r="733">
@@ -7748,7 +7748,7 @@
         </is>
       </c>
       <c r="B733" t="n">
-        <v>1.849983836983319e-05</v>
+        <v>3.699967673966638e-05</v>
       </c>
     </row>
     <row r="734">
@@ -7758,7 +7758,7 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="735">
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>3.505232533231552e-05</v>
+        <v>7.010465066463104e-05</v>
       </c>
     </row>
     <row r="736">
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>7.789405629403448e-06</v>
+        <v>1.55788112588069e-05</v>
       </c>
     </row>
     <row r="737">
@@ -7788,7 +7788,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="738">
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>5.257848799847328e-05</v>
+        <v>0.0001051569759969466</v>
       </c>
     </row>
     <row r="739">
@@ -7808,7 +7808,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>9.73675703675431e-06</v>
+        <v>1.947351407350862e-05</v>
       </c>
     </row>
     <row r="740">
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="B740" t="n">
-        <v>3.213129822128922e-05</v>
+        <v>6.426259644257845e-05</v>
       </c>
     </row>
     <row r="741">
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="742">
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>2.531556829556121e-05</v>
+        <v>5.063113659112242e-05</v>
       </c>
     </row>
     <row r="743">
@@ -7848,7 +7848,7 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="744">
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="B744" t="n">
-        <v>7.789405629403448e-06</v>
+        <v>1.55788112588069e-05</v>
       </c>
     </row>
     <row r="745">
@@ -7868,7 +7868,7 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>4.186805525804354e-05</v>
+        <v>8.373611051608707e-05</v>
       </c>
     </row>
     <row r="746">
@@ -7878,7 +7878,7 @@
         </is>
       </c>
       <c r="B746" t="n">
-        <v>3.894702814701724e-06</v>
+        <v>7.789405629403448e-06</v>
       </c>
     </row>
     <row r="747">
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="B747" t="n">
-        <v>5.93942179242013e-05</v>
+        <v>0.0001187884358484026</v>
       </c>
     </row>
     <row r="748">
@@ -7898,7 +7898,7 @@
         </is>
       </c>
       <c r="B748" t="n">
-        <v>1.947351407350862e-05</v>
+        <v>3.894702814701724e-05</v>
       </c>
     </row>
     <row r="749">
@@ -7908,7 +7908,7 @@
         </is>
       </c>
       <c r="B749" t="n">
-        <v>7.789405629403448e-06</v>
+        <v>1.55788112588069e-05</v>
       </c>
     </row>
     <row r="750">
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="B750" t="n">
-        <v>7.497302918300818e-05</v>
+        <v>0.0001499460583660164</v>
       </c>
     </row>
     <row r="751">
@@ -7928,7 +7928,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="752">
@@ -7938,7 +7938,7 @@
         </is>
       </c>
       <c r="B752" t="n">
-        <v>5.93942179242013e-05</v>
+        <v>0.0001187884358484026</v>
       </c>
     </row>
     <row r="753">
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>1.752616266615776e-05</v>
+        <v>3.505232533231552e-05</v>
       </c>
     </row>
     <row r="754">
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="755">
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="B755" t="n">
-        <v>0.0001139200573300254</v>
+        <v>0.0002278401146600509</v>
       </c>
     </row>
     <row r="756">
@@ -7978,7 +7978,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>5.35521637021487e-05</v>
+        <v>0.0001071043274042974</v>
       </c>
     </row>
     <row r="757">
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>9.73675703675431e-06</v>
+        <v>1.947351407350862e-05</v>
       </c>
     </row>
     <row r="758">
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="B758" t="n">
-        <v>1.55788112588069e-05</v>
+        <v>3.115762251761379e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>4.38154066653944e-05</v>
+        <v>8.76308133307888e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="B760" t="n">
-        <v>2.142086548085948e-05</v>
+        <v>4.284173096171897e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8028,7 +8028,7 @@
         </is>
       </c>
       <c r="B761" t="n">
-        <v>1.55788112588069e-05</v>
+        <v>3.115762251761379e-05</v>
       </c>
     </row>
     <row r="762">
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="B762" t="n">
-        <v>1.655248696248233e-05</v>
+        <v>3.310497392496466e-05</v>
       </c>
     </row>
     <row r="763">
@@ -8048,7 +8048,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>1.947351407350862e-05</v>
+        <v>3.894702814701724e-05</v>
       </c>
     </row>
     <row r="764">
@@ -8058,7 +8058,7 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>3.505232533231552e-05</v>
+        <v>7.010465066463104e-05</v>
       </c>
     </row>
     <row r="765">
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="766">
@@ -8078,7 +8078,7 @@
         </is>
       </c>
       <c r="B766" t="n">
-        <v>2.726291970291207e-05</v>
+        <v>5.452583940582414e-05</v>
       </c>
     </row>
     <row r="767">
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="768">
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>4.576275807274526e-05</v>
+        <v>9.152551614549051e-05</v>
       </c>
     </row>
     <row r="769">
@@ -8108,7 +8108,7 @@
         </is>
       </c>
       <c r="B769" t="n">
-        <v>1.071043274042974e-05</v>
+        <v>2.142086548085948e-05</v>
       </c>
     </row>
     <row r="770">
@@ -8118,7 +8118,7 @@
         </is>
       </c>
       <c r="B770" t="n">
-        <v>2.628924399923664e-05</v>
+        <v>5.257848799847328e-05</v>
       </c>
     </row>
     <row r="771">
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>3.894702814701724e-06</v>
+        <v>7.789405629403448e-06</v>
       </c>
     </row>
     <row r="772">
@@ -8138,7 +8138,7 @@
         </is>
       </c>
       <c r="B772" t="n">
-        <v>8.76308133307888e-06</v>
+        <v>1.752616266615776e-05</v>
       </c>
     </row>
     <row r="773">
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>4.186805525804354e-05</v>
+        <v>8.373611051608707e-05</v>
       </c>
     </row>
     <row r="774">
@@ -8158,7 +8158,7 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>3.115762251761379e-05</v>
+        <v>6.231524503522758e-05</v>
       </c>
     </row>
     <row r="775">
@@ -8168,7 +8168,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>4.868378518377155e-06</v>
+        <v>9.73675703675431e-06</v>
       </c>
     </row>
     <row r="776">
@@ -8178,7 +8178,7 @@
         </is>
       </c>
       <c r="B776" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="777">
@@ -8188,7 +8188,7 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>1.26577841477806e-05</v>
+        <v>2.531556829556121e-05</v>
       </c>
     </row>
     <row r="778">
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="779">
@@ -8208,7 +8208,7 @@
         </is>
       </c>
       <c r="B779" t="n">
-        <v>1.071043274042974e-05</v>
+        <v>2.142086548085948e-05</v>
       </c>
     </row>
     <row r="780">
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="781">
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="782">
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="783">
@@ -8248,7 +8248,7 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>2.336821688821034e-05</v>
+        <v>4.673643377642069e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B784" t="n">
-        <v>2.921027111026293e-06</v>
+        <v>5.842054222052586e-06</v>
       </c>
     </row>
     <row r="785">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B785" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="786">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="B786" t="n">
-        <v>8.76308133307888e-06</v>
+        <v>1.752616266615776e-05</v>
       </c>
     </row>
     <row r="787">
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="B787" t="n">
-        <v>9.73675703675431e-06</v>
+        <v>1.947351407350862e-05</v>
       </c>
     </row>
     <row r="788">
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>2.921027111026293e-06</v>
+        <v>5.842054222052586e-06</v>
       </c>
     </row>
     <row r="789">
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="B789" t="n">
-        <v>1.168410844410517e-05</v>
+        <v>2.336821688821034e-05</v>
       </c>
     </row>
     <row r="790">
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="B790" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="791">
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="792">
@@ -8338,7 +8338,7 @@
         </is>
       </c>
       <c r="B792" t="n">
-        <v>2.921027111026293e-06</v>
+        <v>5.842054222052586e-06</v>
       </c>
     </row>
     <row r="793">
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="794">
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="B794" t="n">
-        <v>1.363145985145603e-05</v>
+        <v>2.726291970291207e-05</v>
       </c>
     </row>
     <row r="795">
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="B795" t="n">
-        <v>3.894702814701724e-06</v>
+        <v>7.789405629403448e-06</v>
       </c>
     </row>
     <row r="796">
@@ -8378,7 +8378,7 @@
         </is>
       </c>
       <c r="B796" t="n">
-        <v>3.018394681393836e-05</v>
+        <v>6.036789362787673e-05</v>
       </c>
     </row>
     <row r="797">
@@ -8388,7 +8388,7 @@
         </is>
       </c>
       <c r="B797" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="798">
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="B798" t="n">
-        <v>2.142086548085948e-05</v>
+        <v>4.284173096171897e-05</v>
       </c>
     </row>
     <row r="799">
@@ -8408,7 +8408,7 @@
         </is>
       </c>
       <c r="B799" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="800">
@@ -8418,7 +8418,7 @@
         </is>
       </c>
       <c r="B800" t="n">
-        <v>7.789405629403448e-06</v>
+        <v>1.55788112588069e-05</v>
       </c>
     </row>
     <row r="801">
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="B801" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="802">
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="B802" t="n">
-        <v>3.894702814701724e-06</v>
+        <v>7.789405629403448e-06</v>
       </c>
     </row>
     <row r="803">
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="B803" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="804">
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="B804" t="n">
-        <v>2.921027111026293e-06</v>
+        <v>5.842054222052586e-06</v>
       </c>
     </row>
     <row r="805">
@@ -8468,7 +8468,7 @@
         </is>
       </c>
       <c r="B805" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="806">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="B806" t="n">
-        <v>1.168410844410517e-05</v>
+        <v>2.336821688821034e-05</v>
       </c>
     </row>
     <row r="807">
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="B807" t="n">
-        <v>1.071043274042974e-05</v>
+        <v>2.142086548085948e-05</v>
       </c>
     </row>
     <row r="808">
@@ -8498,7 +8498,7 @@
         </is>
       </c>
       <c r="B808" t="n">
-        <v>4.868378518377155e-06</v>
+        <v>9.73675703675431e-06</v>
       </c>
     </row>
     <row r="809">
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="B809" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="810">
@@ -8518,7 +8518,7 @@
         </is>
       </c>
       <c r="B810" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="811">
@@ -8528,7 +8528,7 @@
         </is>
       </c>
       <c r="B811" t="n">
-        <v>3.310497392496466e-05</v>
+        <v>6.620994784992931e-05</v>
       </c>
     </row>
     <row r="812">
@@ -8538,7 +8538,7 @@
         </is>
       </c>
       <c r="B812" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="813">
@@ -8548,7 +8548,7 @@
         </is>
       </c>
       <c r="B813" t="n">
-        <v>9.73675703675431e-06</v>
+        <v>1.947351407350862e-05</v>
       </c>
     </row>
     <row r="814">
@@ -8558,7 +8558,7 @@
         </is>
       </c>
       <c r="B814" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="815">
@@ -8568,7 +8568,7 @@
         </is>
       </c>
       <c r="B815" t="n">
-        <v>2.921027111026293e-06</v>
+        <v>5.842054222052586e-06</v>
       </c>
     </row>
     <row r="816">
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>7.789405629403448e-06</v>
+        <v>1.55788112588069e-05</v>
       </c>
     </row>
     <row r="817">
@@ -8588,7 +8588,7 @@
         </is>
       </c>
       <c r="B817" t="n">
-        <v>8.76308133307888e-06</v>
+        <v>1.752616266615776e-05</v>
       </c>
     </row>
     <row r="818">
@@ -8598,7 +8598,7 @@
         </is>
       </c>
       <c r="B818" t="n">
-        <v>3.894702814701724e-06</v>
+        <v>7.789405629403448e-06</v>
       </c>
     </row>
     <row r="819">
@@ -8608,7 +8608,7 @@
         </is>
       </c>
       <c r="B819" t="n">
-        <v>1.26577841477806e-05</v>
+        <v>2.531556829556121e-05</v>
       </c>
     </row>
     <row r="820">
@@ -8618,7 +8618,7 @@
         </is>
       </c>
       <c r="B820" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="821">
@@ -8628,7 +8628,7 @@
         </is>
       </c>
       <c r="B821" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="822">
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="B822" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="823">
@@ -8648,7 +8648,7 @@
         </is>
       </c>
       <c r="B823" t="n">
-        <v>6.815729925728017e-06</v>
+        <v>1.363145985145603e-05</v>
       </c>
     </row>
     <row r="824">
@@ -8658,7 +8658,7 @@
         </is>
       </c>
       <c r="B824" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="825">
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="B825" t="n">
-        <v>2.239454118453492e-05</v>
+        <v>4.478908236906983e-05</v>
       </c>
     </row>
     <row r="826">
@@ -8678,7 +8678,7 @@
         </is>
       </c>
       <c r="B826" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="827">
@@ -8688,7 +8688,7 @@
         </is>
       </c>
       <c r="B827" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="828">
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="B828" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="829">
@@ -8708,7 +8708,7 @@
         </is>
       </c>
       <c r="B829" t="n">
-        <v>9.73675703675431e-06</v>
+        <v>1.947351407350862e-05</v>
       </c>
     </row>
     <row r="830">
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B830" t="n">
-        <v>7.789405629403448e-06</v>
+        <v>1.55788112588069e-05</v>
       </c>
     </row>
     <row r="831">
@@ -8728,7 +8728,7 @@
         </is>
       </c>
       <c r="B831" t="n">
-        <v>3.894702814701724e-06</v>
+        <v>7.789405629403448e-06</v>
       </c>
     </row>
     <row r="832">
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="B832" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="833">
@@ -8748,7 +8748,7 @@
         </is>
       </c>
       <c r="B833" t="n">
-        <v>3.894702814701724e-06</v>
+        <v>7.789405629403448e-06</v>
       </c>
     </row>
     <row r="834">
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="B834" t="n">
-        <v>1.655248696248233e-05</v>
+        <v>3.310497392496466e-05</v>
       </c>
     </row>
     <row r="835">
@@ -8768,7 +8768,7 @@
         </is>
       </c>
       <c r="B835" t="n">
-        <v>2.921027111026293e-06</v>
+        <v>5.842054222052586e-06</v>
       </c>
     </row>
     <row r="836">
@@ -8778,7 +8778,7 @@
         </is>
       </c>
       <c r="B836" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="837">
@@ -8788,7 +8788,7 @@
         </is>
       </c>
       <c r="B837" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="838">
@@ -8798,7 +8798,7 @@
         </is>
       </c>
       <c r="B838" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="839">
@@ -8808,7 +8808,7 @@
         </is>
       </c>
       <c r="B839" t="n">
-        <v>2.921027111026293e-05</v>
+        <v>5.842054222052586e-05</v>
       </c>
     </row>
     <row r="840">
@@ -8818,7 +8818,7 @@
         </is>
       </c>
       <c r="B840" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="841">
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="B841" t="n">
-        <v>1.071043274042974e-05</v>
+        <v>2.142086548085948e-05</v>
       </c>
     </row>
     <row r="842">
@@ -8838,7 +8838,7 @@
         </is>
       </c>
       <c r="B842" t="n">
-        <v>4.868378518377155e-06</v>
+        <v>9.73675703675431e-06</v>
       </c>
     </row>
     <row r="843">
@@ -8848,7 +8848,7 @@
         </is>
       </c>
       <c r="B843" t="n">
-        <v>4.868378518377155e-06</v>
+        <v>9.73675703675431e-06</v>
       </c>
     </row>
     <row r="844">
@@ -8858,7 +8858,7 @@
         </is>
       </c>
       <c r="B844" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="845">
@@ -8868,7 +8868,7 @@
         </is>
       </c>
       <c r="B845" t="n">
-        <v>2.921027111026293e-06</v>
+        <v>5.842054222052586e-06</v>
       </c>
     </row>
     <row r="846">
@@ -8878,7 +8878,7 @@
         </is>
       </c>
       <c r="B846" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="847">
@@ -8888,7 +8888,7 @@
         </is>
       </c>
       <c r="B847" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="848">
@@ -8898,7 +8898,7 @@
         </is>
       </c>
       <c r="B848" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="849">
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>7.789405629403448e-06</v>
+        <v>1.55788112588069e-05</v>
       </c>
     </row>
     <row r="850">
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="B850" t="n">
-        <v>2.921027111026293e-06</v>
+        <v>5.842054222052586e-06</v>
       </c>
     </row>
     <row r="851">
@@ -8928,7 +8928,7 @@
         </is>
       </c>
       <c r="B851" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="852">
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="B852" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="853">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="B853" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="854">
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="B854" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="855">
@@ -8968,7 +8968,7 @@
         </is>
       </c>
       <c r="B855" t="n">
-        <v>4.868378518377155e-06</v>
+        <v>9.73675703675431e-06</v>
       </c>
     </row>
     <row r="856">
@@ -8978,7 +8978,7 @@
         </is>
       </c>
       <c r="B856" t="n">
-        <v>5.842054222052586e-06</v>
+        <v>1.168410844410517e-05</v>
       </c>
     </row>
     <row r="857">
@@ -8988,7 +8988,7 @@
         </is>
       </c>
       <c r="B857" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="858">
@@ -8998,7 +8998,7 @@
         </is>
       </c>
       <c r="B858" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="859">
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="B859" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="860">
@@ -9018,7 +9018,7 @@
         </is>
       </c>
       <c r="B860" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="861">
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="B861" t="n">
-        <v>2.921027111026293e-06</v>
+        <v>5.842054222052586e-06</v>
       </c>
     </row>
     <row r="862">
@@ -9038,7 +9038,7 @@
         </is>
       </c>
       <c r="B862" t="n">
-        <v>7.789405629403448e-06</v>
+        <v>1.55788112588069e-05</v>
       </c>
     </row>
     <row r="863">
@@ -9048,7 +9048,7 @@
         </is>
       </c>
       <c r="B863" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="864">
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="B864" t="n">
-        <v>3.894702814701724e-06</v>
+        <v>7.789405629403448e-06</v>
       </c>
     </row>
     <row r="865">
@@ -9068,7 +9068,7 @@
         </is>
       </c>
       <c r="B865" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="866">
@@ -9078,7 +9078,7 @@
         </is>
       </c>
       <c r="B866" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="867">
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="B867" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="868">
@@ -9098,7 +9098,7 @@
         </is>
       </c>
       <c r="B868" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="869">
@@ -9108,7 +9108,7 @@
         </is>
       </c>
       <c r="B869" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="870">
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="B870" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="871">
@@ -9128,7 +9128,7 @@
         </is>
       </c>
       <c r="B871" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="872">
@@ -9138,7 +9138,7 @@
         </is>
       </c>
       <c r="B872" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="873">
@@ -9148,7 +9148,7 @@
         </is>
       </c>
       <c r="B873" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="874">
@@ -9158,7 +9158,7 @@
         </is>
       </c>
       <c r="B874" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="875">
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="B875" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="876">
@@ -9178,7 +9178,7 @@
         </is>
       </c>
       <c r="B876" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="877">
@@ -9188,7 +9188,7 @@
         </is>
       </c>
       <c r="B877" t="n">
-        <v>1.947351407350862e-06</v>
+        <v>3.894702814701724e-06</v>
       </c>
     </row>
     <row r="878">
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="B878" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="879">
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="B879" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="880">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="B880" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
     <row r="881">
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="B881" t="n">
-        <v>9.73675703675431e-07</v>
+        <v>1.947351407350862e-06</v>
       </c>
     </row>
   </sheetData>
